--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81559.5082613541</v>
+        <v>-82286.77685528144</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1734214.142967361</v>
+        <v>1734214.14296736</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>211.8551051983902</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>239.102433649969</v>
       </c>
       <c r="F11" t="n">
-        <v>264.0481093194187</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9665480977252</v>
+        <v>165.8331331006218</v>
       </c>
       <c r="H11" t="n">
         <v>191.441719707231</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>54.61031803772086</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>78.04303565571338</v>
+        <v>78.04303565571335</v>
       </c>
       <c r="U11" t="n">
-        <v>108.4770562459344</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>184.9243220478422</v>
       </c>
       <c r="W11" t="n">
-        <v>128.725786428124</v>
+        <v>206.4130322951203</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>243.4100022337608</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.70524722757463</v>
+        <v>23.7052472275746</v>
       </c>
       <c r="C12" t="n">
-        <v>29.88056256602303</v>
+        <v>29.880562566023</v>
       </c>
       <c r="D12" t="n">
-        <v>4.617129142346045</v>
+        <v>4.617129142346016</v>
       </c>
       <c r="E12" t="n">
-        <v>14.81714403310824</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>2.24127597109117</v>
+        <v>2.241275971091142</v>
       </c>
       <c r="G12" t="n">
         <v>137.0715778366251</v>
@@ -1467,7 +1467,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I12" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S12" t="n">
-        <v>166.6320173841457</v>
+        <v>23.80408096185294</v>
       </c>
       <c r="T12" t="n">
-        <v>56.24068595177398</v>
+        <v>56.24068595177395</v>
       </c>
       <c r="U12" t="n">
-        <v>83.095554913512</v>
+        <v>83.09555491351198</v>
       </c>
       <c r="V12" t="n">
-        <v>89.97265072713256</v>
+        <v>220.488867943972</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>62.94504878118477</v>
+        <v>62.94504878118474</v>
       </c>
       <c r="Y12" t="n">
-        <v>113.3371670261221</v>
+        <v>62.85475935501162</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.00404375964459</v>
+        <v>37.00404375964456</v>
       </c>
       <c r="C13" t="n">
-        <v>24.41888467633513</v>
+        <v>24.4188846763351</v>
       </c>
       <c r="D13" t="n">
-        <v>5.787536595919647</v>
+        <v>5.787536595919619</v>
       </c>
       <c r="E13" t="n">
-        <v>3.606026224276462</v>
+        <v>3.606026224276434</v>
       </c>
       <c r="F13" t="n">
-        <v>2.593111600638537</v>
+        <v>2.593111600638508</v>
       </c>
       <c r="G13" t="n">
-        <v>24.93505813979076</v>
+        <v>24.93505813979073</v>
       </c>
       <c r="H13" t="n">
-        <v>17.37224398646475</v>
+        <v>17.37224398646472</v>
       </c>
       <c r="I13" t="n">
-        <v>5.766413901243223</v>
+        <v>5.766413901243194</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.21442947422057</v>
+        <v>24.21442947422054</v>
       </c>
       <c r="S13" t="n">
-        <v>77.21550839057564</v>
+        <v>77.21550839057561</v>
       </c>
       <c r="T13" t="n">
-        <v>84.14353614874891</v>
+        <v>84.14353614874888</v>
       </c>
       <c r="U13" t="n">
         <v>143.4786573998504</v>
@@ -1591,10 +1591,10 @@
         <v>143.6950619142983</v>
       </c>
       <c r="X13" t="n">
-        <v>82.88171896674444</v>
+        <v>82.88171896674442</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.75671692980208</v>
+        <v>75.75671692980205</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.9059052411879</v>
+        <v>239.9059052411878</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>211.8551051983903</v>
+        <v>211.8551051983902</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>264.0481093194187</v>
       </c>
       <c r="G14" t="n">
-        <v>271.9665480977253</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>191.4417197072311</v>
+        <v>108.8181467581325</v>
       </c>
       <c r="I14" t="n">
-        <v>48.05352955385978</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>54.6103180377209</v>
+        <v>54.61031803772083</v>
       </c>
       <c r="T14" t="n">
-        <v>47.92455062038218</v>
+        <v>78.04303565571335</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.4100022337609</v>
+        <v>243.4100022337608</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>23.7052472275746</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>4.617129142346073</v>
+        <v>4.617129142346016</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>34.2280861806473</v>
+        <v>39.98444476631575</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>23.80408096185299</v>
+        <v>23.80408096185294</v>
       </c>
       <c r="T15" t="n">
-        <v>56.240685951774</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9234913358047</v>
+        <v>83.09555491351198</v>
       </c>
       <c r="V15" t="n">
-        <v>89.97265072713259</v>
+        <v>89.97265072713253</v>
       </c>
       <c r="W15" t="n">
         <v>108.8670467386269</v>
       </c>
       <c r="X15" t="n">
-        <v>62.94504878118479</v>
+        <v>62.94504878118474</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.00404375964462</v>
+        <v>37.00404375964456</v>
       </c>
       <c r="C16" t="n">
-        <v>24.41888467633515</v>
+        <v>24.4188846763351</v>
       </c>
       <c r="D16" t="n">
-        <v>5.787536595919676</v>
+        <v>5.787536595919619</v>
       </c>
       <c r="E16" t="n">
-        <v>3.606026224276491</v>
+        <v>3.606026224276434</v>
       </c>
       <c r="F16" t="n">
-        <v>2.593111600638565</v>
+        <v>2.593111600638508</v>
       </c>
       <c r="G16" t="n">
-        <v>24.93505813979079</v>
+        <v>24.93505813979073</v>
       </c>
       <c r="H16" t="n">
-        <v>17.37224398646477</v>
+        <v>17.37224398646472</v>
       </c>
       <c r="I16" t="n">
-        <v>5.766413901243252</v>
+        <v>5.766413901243194</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.21442947422059</v>
+        <v>24.21442947422054</v>
       </c>
       <c r="S16" t="n">
-        <v>77.21550839057566</v>
+        <v>77.21550839057561</v>
       </c>
       <c r="T16" t="n">
-        <v>84.14353614874894</v>
+        <v>84.14353614874888</v>
       </c>
       <c r="U16" t="n">
-        <v>143.4786573998505</v>
+        <v>143.4786573998504</v>
       </c>
       <c r="V16" t="n">
         <v>109.3097069015353</v>
@@ -1828,10 +1828,10 @@
         <v>143.6950619142983</v>
       </c>
       <c r="X16" t="n">
-        <v>82.88171896674447</v>
+        <v>82.88171896674442</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.75671692980211</v>
+        <v>75.75671692980205</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>131.4288489952534</v>
       </c>
       <c r="C17" t="n">
-        <v>113.9678991027804</v>
+        <v>113.9678991027803</v>
       </c>
       <c r="D17" t="n">
-        <v>103.3780489524558</v>
+        <v>103.3780489524557</v>
       </c>
       <c r="E17" t="n">
         <v>130.6253774040346</v>
       </c>
       <c r="F17" t="n">
-        <v>155.5710530734843</v>
+        <v>155.5710530734842</v>
       </c>
       <c r="G17" t="n">
-        <v>163.4894918517908</v>
+        <v>163.4894918517915</v>
       </c>
       <c r="H17" t="n">
-        <v>82.9646634612966</v>
+        <v>82.96466346129654</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.44726580190775</v>
+        <v>76.44726580190769</v>
       </c>
       <c r="W17" t="n">
-        <v>97.93597604918585</v>
+        <v>97.9359760491858</v>
       </c>
       <c r="X17" t="n">
-        <v>118.4261080102419</v>
+        <v>118.4261080102418</v>
       </c>
       <c r="Y17" t="n">
         <v>134.9329459878264</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>163.039374802588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.05122636511827</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>157.5793123115773</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>148.5943503235359</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8.9849619880411</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.07142543885081</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.00160115391598</v>
+        <v>35.00160115391593</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8326506556008439</v>
+        <v>0.8326506556007871</v>
       </c>
       <c r="W19" t="n">
-        <v>35.21800566836384</v>
+        <v>35.21800566836379</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>131.4288489952534</v>
       </c>
       <c r="C20" t="n">
-        <v>113.9678991027804</v>
+        <v>113.9678991027803</v>
       </c>
       <c r="D20" t="n">
-        <v>103.3780489524558</v>
+        <v>103.3780489524557</v>
       </c>
       <c r="E20" t="n">
-        <v>130.6253774040347</v>
+        <v>130.6253774040346</v>
       </c>
       <c r="F20" t="n">
-        <v>155.5710530734843</v>
+        <v>155.5710530734842</v>
       </c>
       <c r="G20" t="n">
-        <v>163.4894918517908</v>
+        <v>163.4894918517907</v>
       </c>
       <c r="H20" t="n">
-        <v>82.96466346129662</v>
+        <v>82.96466346129654</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.44726580190778</v>
+        <v>76.44726580190769</v>
       </c>
       <c r="W20" t="n">
-        <v>97.93597604918588</v>
+        <v>97.9359760491858</v>
       </c>
       <c r="X20" t="n">
-        <v>118.4261080102419</v>
+        <v>118.4261080102418</v>
       </c>
       <c r="Y20" t="n">
-        <v>134.9329459878265</v>
+        <v>134.9329459878264</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>52.39202182338687</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T21" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9234913358047</v>
+        <v>78.39990036706038</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0.3899904926923909</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>78.21677510385858</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.984961988041325</v>
       </c>
       <c r="U22" t="n">
-        <v>35.00160115391601</v>
+        <v>35.00160115391593</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8326506556008724</v>
+        <v>0.8326506556007871</v>
       </c>
       <c r="W22" t="n">
-        <v>35.21800566836387</v>
+        <v>35.21800566836379</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>131.4288489952534</v>
       </c>
       <c r="C23" t="n">
-        <v>113.9678991027804</v>
+        <v>113.9678991027803</v>
       </c>
       <c r="D23" t="n">
-        <v>103.3780489524558</v>
+        <v>103.3780489524557</v>
       </c>
       <c r="E23" t="n">
-        <v>130.6253774040347</v>
+        <v>130.6253774040346</v>
       </c>
       <c r="F23" t="n">
-        <v>155.5710530734843</v>
+        <v>155.5710530734842</v>
       </c>
       <c r="G23" t="n">
-        <v>163.4894918517908</v>
+        <v>163.4894918517907</v>
       </c>
       <c r="H23" t="n">
-        <v>82.96466346129662</v>
+        <v>82.96466346129654</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>76.44726580190778</v>
+        <v>76.44726580190769</v>
       </c>
       <c r="W23" t="n">
-        <v>97.93597604918588</v>
+        <v>97.9359760491858</v>
       </c>
       <c r="X23" t="n">
-        <v>118.4261080102419</v>
+        <v>118.4261080102418</v>
       </c>
       <c r="Y23" t="n">
-        <v>134.9329459878265</v>
+        <v>134.9329459878264</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>78.42876208647746</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I24" t="n">
-        <v>80.03380954572833</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0.3899904926923909</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>105.5136460737298</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>259.6523389043438</v>
+        <v>35.00160115391593</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8326506556008724</v>
+        <v>0.8326506556007871</v>
       </c>
       <c r="W25" t="n">
-        <v>35.21800566836387</v>
+        <v>35.21800566836379</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>76.05638742689213</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I26" t="n">
-        <v>41.188348408119</v>
+        <v>41.18834840811897</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.7451368919801</v>
+        <v>47.74513689198005</v>
       </c>
       <c r="T26" t="n">
-        <v>71.17785450997262</v>
+        <v>71.17785450997258</v>
       </c>
       <c r="U26" t="n">
-        <v>101.6118751001937</v>
+        <v>101.6118751001936</v>
       </c>
       <c r="V26" t="n">
         <v>178.0591409021014</v>
@@ -2618,7 +2618,7 @@
         <v>199.5478511493795</v>
       </c>
       <c r="X26" t="n">
-        <v>220.0379831104356</v>
+        <v>220.0379831104355</v>
       </c>
       <c r="Y26" t="n">
         <v>236.5448210880201</v>
@@ -2634,10 +2634,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>111.417153142962</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,7 +2646,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>16.9388998161122</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T27" t="n">
-        <v>148.1507642567266</v>
+        <v>49.37550480603318</v>
       </c>
       <c r="U27" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>83.10746958139177</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>56.079867635444</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.13886261390383</v>
+        <v>30.1388626139038</v>
       </c>
       <c r="C28" t="n">
-        <v>17.55370353059436</v>
+        <v>17.55370353059433</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.06987699405</v>
+        <v>18.06987699404997</v>
       </c>
       <c r="H28" t="n">
-        <v>10.50706284072398</v>
+        <v>10.50706284072395</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.3492483284798</v>
+        <v>17.34924832847977</v>
       </c>
       <c r="S28" t="n">
-        <v>70.35032724483487</v>
+        <v>70.35032724483484</v>
       </c>
       <c r="T28" t="n">
-        <v>77.27835500300814</v>
+        <v>77.27835500300812</v>
       </c>
       <c r="U28" t="n">
         <v>136.6134762541097</v>
@@ -2776,10 +2776,10 @@
         <v>136.8298807685575</v>
       </c>
       <c r="X28" t="n">
-        <v>76.01653782100368</v>
+        <v>76.01653782100365</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.89153578406132</v>
+        <v>68.89153578406129</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.74513689198008</v>
+        <v>47.74513689198007</v>
       </c>
       <c r="T29" t="n">
-        <v>71.17785450997258</v>
+        <v>71.17785450997259</v>
       </c>
       <c r="U29" t="n">
         <v>101.6118751001936</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>166.6320173841457</v>
       </c>
       <c r="T30" t="n">
-        <v>49.37550480603318</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9234913358047</v>
+        <v>76.23037376777121</v>
       </c>
       <c r="V30" t="n">
         <v>83.10746958139177</v>
       </c>
       <c r="W30" t="n">
-        <v>102.0018655928861</v>
+        <v>110.3698277698377</v>
       </c>
       <c r="X30" t="n">
-        <v>157.1031790895321</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3047,7 +3047,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I32" t="n">
-        <v>41.188348408119</v>
+        <v>41.18834840811896</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.74513689198011</v>
+        <v>47.74513689198007</v>
       </c>
       <c r="T32" t="n">
-        <v>71.1778545099726</v>
+        <v>71.17785450997259</v>
       </c>
       <c r="U32" t="n">
-        <v>101.6118751001937</v>
+        <v>101.6118751001936</v>
       </c>
       <c r="V32" t="n">
         <v>178.0591409021014</v>
@@ -3092,7 +3092,7 @@
         <v>199.5478511493795</v>
       </c>
       <c r="X32" t="n">
-        <v>220.0379831104356</v>
+        <v>220.0379831104355</v>
       </c>
       <c r="Y32" t="n">
         <v>236.5448210880201</v>
@@ -3117,7 +3117,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>83.77786654802995</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>16.9388998161122</v>
+        <v>16.93889981611217</v>
       </c>
       <c r="T33" t="n">
-        <v>49.37550480603321</v>
+        <v>49.37550480603318</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9234913358047</v>
+        <v>164.6321454904514</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.13886261390383</v>
+        <v>30.1388626139038</v>
       </c>
       <c r="C34" t="n">
-        <v>17.55370353059436</v>
+        <v>17.55370353059433</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.06987699405</v>
+        <v>18.06987699404997</v>
       </c>
       <c r="H34" t="n">
-        <v>10.50706284072398</v>
+        <v>10.50706284072395</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.3492483284798</v>
+        <v>17.34924832847977</v>
       </c>
       <c r="S34" t="n">
-        <v>70.35032724483487</v>
+        <v>70.35032724483484</v>
       </c>
       <c r="T34" t="n">
-        <v>77.27835500300814</v>
+        <v>77.27835500300812</v>
       </c>
       <c r="U34" t="n">
         <v>136.6134762541097</v>
@@ -3250,10 +3250,10 @@
         <v>136.8298807685575</v>
       </c>
       <c r="X34" t="n">
-        <v>76.01653782100368</v>
+        <v>76.01653782100365</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.89153578406132</v>
+        <v>68.89153578406129</v>
       </c>
     </row>
     <row r="35">
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>31.94692699887252</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>14.94176831231692</v>
+        <v>199.991255976193</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.24065501293978</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>113.9239788527036</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>49.76978348798832</v>
       </c>
       <c r="X37" t="n">
-        <v>103.7547492786146</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>97.51644128092107</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.104396574191924e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3588,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0715778366251</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>199.0686223740667</v>
       </c>
       <c r="U39" t="n">
-        <v>137.5607921402874</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>14.94176831231692</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>28.75161838736438</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>34.56144164498526</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>15.38442847522532</v>
       </c>
       <c r="W40" t="n">
-        <v>49.76978348798832</v>
+        <v>153.524532766603</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>161.8628695854745</v>
       </c>
       <c r="C41" t="n">
-        <v>144.4019196930015</v>
+        <v>144.4019196930014</v>
       </c>
       <c r="D41" t="n">
         <v>133.8120695426769</v>
@@ -3749,13 +3749,13 @@
         <v>161.0593979942557</v>
       </c>
       <c r="F41" t="n">
-        <v>186.0050736637054</v>
+        <v>186.0050736637053</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9235124420119</v>
+        <v>193.9235124420118</v>
       </c>
       <c r="H41" t="n">
-        <v>113.3986840515177</v>
+        <v>113.3986840515176</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.43402059022105</v>
+        <v>30.43402059022102</v>
       </c>
       <c r="V41" t="n">
         <v>106.8812863921288</v>
@@ -3803,7 +3803,7 @@
         <v>128.3699966394069</v>
       </c>
       <c r="X41" t="n">
-        <v>148.860128600463</v>
+        <v>148.8601286004629</v>
       </c>
       <c r="Y41" t="n">
         <v>165.3669665780475</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,10 +3828,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>129.0403265657623</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U42" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V42" t="n">
-        <v>11.92961507141919</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>11.02528811849984</v>
       </c>
     </row>
     <row r="43">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>122.409492175698</v>
+        <v>122.4094921756981</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.100500493035543</v>
+        <v>6.100500493035515</v>
       </c>
       <c r="U43" t="n">
-        <v>65.43562174413707</v>
+        <v>65.43562174413704</v>
       </c>
       <c r="V43" t="n">
-        <v>31.26667124582193</v>
+        <v>31.2666712458219</v>
       </c>
       <c r="W43" t="n">
-        <v>65.65202625858493</v>
+        <v>65.6520262585849</v>
       </c>
       <c r="X43" t="n">
-        <v>4.838683311031076</v>
+        <v>4.838683311031048</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>186.0050736637054</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9235124420118</v>
+        <v>193.9235124420119</v>
       </c>
       <c r="H44" t="n">
         <v>113.3986840515177</v>
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>23.69456598609616</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>65.81443494315729</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>55.33806673684718</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>31.26667124582193</v>
       </c>
       <c r="W46" t="n">
-        <v>188.0615184342829</v>
+        <v>65.65202625858493</v>
       </c>
       <c r="X46" t="n">
         <v>4.838683311031076</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>975.7870606577152</v>
+        <v>629.3888830163581</v>
       </c>
       <c r="C11" t="n">
-        <v>975.7870606577152</v>
+        <v>629.3888830163581</v>
       </c>
       <c r="D11" t="n">
-        <v>761.7920049017655</v>
+        <v>629.3888830163581</v>
       </c>
       <c r="E11" t="n">
-        <v>761.7920049017655</v>
+        <v>387.8712732689146</v>
       </c>
       <c r="F11" t="n">
-        <v>495.0767429629586</v>
+        <v>387.8712732689146</v>
       </c>
       <c r="G11" t="n">
         <v>220.3630580157613</v>
       </c>
       <c r="H11" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I11" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J11" t="n">
-        <v>43.49516282440723</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K11" t="n">
-        <v>210.5153387936849</v>
+        <v>194.0077595332904</v>
       </c>
       <c r="L11" t="n">
-        <v>469.9952635600217</v>
+        <v>453.4876842996272</v>
       </c>
       <c r="M11" t="n">
-        <v>775.3232217644993</v>
+        <v>758.8156425041047</v>
       </c>
       <c r="N11" t="n">
-        <v>1070.959707997465</v>
+        <v>1054.45212873707</v>
       </c>
       <c r="O11" t="n">
-        <v>1304.933220852845</v>
+        <v>1288.425641592451</v>
       </c>
       <c r="P11" t="n">
-        <v>1304.933220852845</v>
+        <v>1304.933220852846</v>
       </c>
       <c r="Q11" t="n">
         <v>1349.379178200637</v>
@@ -5066,25 +5066,25 @@
         <v>1349.379178200637</v>
       </c>
       <c r="S11" t="n">
-        <v>1294.217240788798</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="T11" t="n">
-        <v>1215.385891641612</v>
+        <v>1270.547829053452</v>
       </c>
       <c r="U11" t="n">
-        <v>1105.81310755481</v>
+        <v>1270.547829053452</v>
       </c>
       <c r="V11" t="n">
-        <v>1105.81310755481</v>
+        <v>1083.755584560683</v>
       </c>
       <c r="W11" t="n">
-        <v>975.7870606577152</v>
+        <v>875.2575721413691</v>
       </c>
       <c r="X11" t="n">
-        <v>975.7870606577152</v>
+        <v>875.2575721413691</v>
       </c>
       <c r="Y11" t="n">
-        <v>975.7870606577152</v>
+        <v>629.3888830163581</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>409.0790804735556</v>
+        <v>472.5074914599842</v>
       </c>
       <c r="C12" t="n">
-        <v>378.8966940432293</v>
+        <v>442.3251050296579</v>
       </c>
       <c r="D12" t="n">
-        <v>374.2329272327787</v>
+        <v>437.6613382192074</v>
       </c>
       <c r="E12" t="n">
-        <v>359.2661150781239</v>
+        <v>278.4238832137519</v>
       </c>
       <c r="F12" t="n">
-        <v>357.0021999558096</v>
+        <v>276.1599680914376</v>
       </c>
       <c r="G12" t="n">
-        <v>218.5460607268954</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="H12" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I12" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J12" t="n">
-        <v>26.98758356401274</v>
+        <v>51.68383790382261</v>
       </c>
       <c r="K12" t="n">
-        <v>195.8182589070749</v>
+        <v>220.5145132468848</v>
       </c>
       <c r="L12" t="n">
-        <v>195.8182589070749</v>
+        <v>508.9325875318635</v>
       </c>
       <c r="M12" t="n">
-        <v>529.7896055117326</v>
+        <v>508.9325875318635</v>
       </c>
       <c r="N12" t="n">
-        <v>863.7609521163902</v>
+        <v>842.9039341365212</v>
       </c>
       <c r="O12" t="n">
-        <v>1011.566254371284</v>
+        <v>1115.326501215037</v>
       </c>
       <c r="P12" t="n">
-        <v>1245.618931356885</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="Q12" t="n">
         <v>1349.379178200637</v>
@@ -5145,25 +5145,25 @@
         <v>1265.264287718369</v>
       </c>
       <c r="S12" t="n">
-        <v>1096.949118643474</v>
+        <v>1241.219761494275</v>
       </c>
       <c r="T12" t="n">
-        <v>1040.140344954814</v>
+        <v>1184.410987805615</v>
       </c>
       <c r="U12" t="n">
-        <v>956.2054410017714</v>
+        <v>1100.476083852573</v>
       </c>
       <c r="V12" t="n">
-        <v>865.3239756208294</v>
+        <v>877.7600556263383</v>
       </c>
       <c r="W12" t="n">
-        <v>611.0866188926277</v>
+        <v>623.5226988981367</v>
       </c>
       <c r="X12" t="n">
-        <v>547.5057615378956</v>
+        <v>559.9418415434046</v>
       </c>
       <c r="Y12" t="n">
-        <v>433.0237746428228</v>
+        <v>496.4521856292515</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.3201847000415</v>
+        <v>112.3201847000414</v>
       </c>
       <c r="C13" t="n">
-        <v>87.65464462293535</v>
+        <v>87.65464462293519</v>
       </c>
       <c r="D13" t="n">
-        <v>81.80864806140035</v>
+        <v>81.80864806140022</v>
       </c>
       <c r="E13" t="n">
-        <v>78.16619732980796</v>
+        <v>78.16619732980786</v>
       </c>
       <c r="F13" t="n">
-        <v>75.54689268269833</v>
+        <v>75.54689268269826</v>
       </c>
       <c r="G13" t="n">
-        <v>50.35996526876826</v>
+        <v>50.35996526876821</v>
       </c>
       <c r="H13" t="n">
-        <v>32.81224407031903</v>
+        <v>32.812244070319</v>
       </c>
       <c r="I13" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J13" t="n">
-        <v>91.91899215927214</v>
+        <v>91.91899215927218</v>
       </c>
       <c r="K13" t="n">
-        <v>237.4946635888037</v>
+        <v>96.09500653073398</v>
       </c>
       <c r="L13" t="n">
-        <v>306.4332693359464</v>
+        <v>156.9653017777404</v>
       </c>
       <c r="M13" t="n">
-        <v>381.0015841232606</v>
+        <v>372.9332736231245</v>
       </c>
       <c r="N13" t="n">
-        <v>600.631104533234</v>
+        <v>592.5627940330978</v>
       </c>
       <c r="O13" t="n">
-        <v>656.8727496945203</v>
+        <v>731.8716955681273</v>
       </c>
       <c r="P13" t="n">
-        <v>822.8761680036263</v>
+        <v>897.8751138772333</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8751138772337</v>
+        <v>897.8751138772333</v>
       </c>
       <c r="R13" t="n">
-        <v>873.4160942063039</v>
+        <v>873.4160942063035</v>
       </c>
       <c r="S13" t="n">
-        <v>795.4206311855204</v>
+        <v>795.4206311855201</v>
       </c>
       <c r="T13" t="n">
-        <v>710.4271603281983</v>
+        <v>710.4271603281979</v>
       </c>
       <c r="U13" t="n">
-        <v>565.4992235606726</v>
+        <v>565.4992235606722</v>
       </c>
       <c r="V13" t="n">
-        <v>455.0853782055864</v>
+        <v>455.0853782055862</v>
       </c>
       <c r="W13" t="n">
-        <v>309.9388510194265</v>
+        <v>309.9388510194262</v>
       </c>
       <c r="X13" t="n">
-        <v>226.2199429722099</v>
+        <v>226.2199429722097</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.6980066794805</v>
+        <v>149.6980066794803</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>757.6107174601808</v>
+        <v>617.6152212164789</v>
       </c>
       <c r="C14" t="n">
-        <v>757.6107174601808</v>
+        <v>617.6152212164789</v>
       </c>
       <c r="D14" t="n">
-        <v>543.615661704231</v>
+        <v>403.6201654605292</v>
       </c>
       <c r="E14" t="n">
-        <v>543.615661704231</v>
+        <v>403.6201654605292</v>
       </c>
       <c r="F14" t="n">
-        <v>543.615661704231</v>
+        <v>136.9049035217224</v>
       </c>
       <c r="G14" t="n">
-        <v>268.9019767570338</v>
+        <v>136.9049035217224</v>
       </c>
       <c r="H14" t="n">
-        <v>75.52650230528525</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I14" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J14" t="n">
-        <v>57.86375137082628</v>
+        <v>57.86375137082629</v>
       </c>
       <c r="K14" t="n">
         <v>224.8839273401039</v>
       </c>
       <c r="L14" t="n">
-        <v>484.3638521064407</v>
+        <v>307.9786664140236</v>
       </c>
       <c r="M14" t="n">
-        <v>775.3232217644993</v>
+        <v>613.3066246185012</v>
       </c>
       <c r="N14" t="n">
-        <v>1070.959707997465</v>
+        <v>908.9431108514668</v>
       </c>
       <c r="O14" t="n">
-        <v>1304.933220852845</v>
+        <v>1142.916623706847</v>
       </c>
       <c r="P14" t="n">
-        <v>1304.933220852845</v>
+        <v>1304.933220852846</v>
       </c>
       <c r="Q14" t="n">
         <v>1349.379178200637</v>
@@ -5306,22 +5306,22 @@
         <v>1294.217240788798</v>
       </c>
       <c r="T14" t="n">
-        <v>1245.808603798513</v>
+        <v>1215.385891641613</v>
       </c>
       <c r="U14" t="n">
-        <v>1245.808603798513</v>
+        <v>1105.813107554811</v>
       </c>
       <c r="V14" t="n">
-        <v>1245.808603798513</v>
+        <v>1105.813107554811</v>
       </c>
       <c r="W14" t="n">
-        <v>1245.808603798513</v>
+        <v>1105.813107554811</v>
       </c>
       <c r="X14" t="n">
-        <v>1245.808603798513</v>
+        <v>1105.813107554811</v>
       </c>
       <c r="Y14" t="n">
-        <v>999.9399146735019</v>
+        <v>859.9444184298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>399.9156590859421</v>
+        <v>544.1863019367436</v>
       </c>
       <c r="C15" t="n">
-        <v>225.4626298048151</v>
+        <v>369.7332726556166</v>
       </c>
       <c r="D15" t="n">
-        <v>220.7988629943645</v>
+        <v>365.0695058451661</v>
       </c>
       <c r="E15" t="n">
-        <v>61.561407988909</v>
+        <v>205.8320508397106</v>
       </c>
       <c r="F15" t="n">
-        <v>26.98758356401274</v>
+        <v>165.443722792927</v>
       </c>
       <c r="G15" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="H15" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I15" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J15" t="n">
-        <v>51.68383790382259</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K15" t="n">
-        <v>220.5145132468847</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9325875318635</v>
+        <v>315.4056578489915</v>
       </c>
       <c r="M15" t="n">
-        <v>702.6001467980104</v>
+        <v>649.3770044536493</v>
       </c>
       <c r="N15" t="n">
-        <v>1036.571493402668</v>
+        <v>983.3483510583071</v>
       </c>
       <c r="O15" t="n">
-        <v>1349.379178200637</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="P15" t="n">
-        <v>1349.379178200637</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="Q15" t="n">
         <v>1349.379178200637</v>
@@ -5385,22 +5385,22 @@
         <v>1325.334651976543</v>
       </c>
       <c r="T15" t="n">
-        <v>1268.525878287882</v>
+        <v>1124.255235437082</v>
       </c>
       <c r="U15" t="n">
-        <v>1040.320331484039</v>
+        <v>1040.32033148404</v>
       </c>
       <c r="V15" t="n">
-        <v>949.4388661030971</v>
+        <v>949.4388661030978</v>
       </c>
       <c r="W15" t="n">
-        <v>839.4721522256962</v>
+        <v>839.4721522256968</v>
       </c>
       <c r="X15" t="n">
-        <v>775.8912948709641</v>
+        <v>775.8912948709648</v>
       </c>
       <c r="Y15" t="n">
-        <v>568.1309961060101</v>
+        <v>568.1309961060108</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.3201847000417</v>
+        <v>112.3201847000414</v>
       </c>
       <c r="C16" t="n">
-        <v>87.65464462293552</v>
+        <v>87.65464462293519</v>
       </c>
       <c r="D16" t="n">
-        <v>81.80864806140049</v>
+        <v>81.80864806140022</v>
       </c>
       <c r="E16" t="n">
-        <v>78.16619732980807</v>
+        <v>78.16619732980786</v>
       </c>
       <c r="F16" t="n">
-        <v>75.54689268269841</v>
+        <v>75.54689268269826</v>
       </c>
       <c r="G16" t="n">
-        <v>50.35996526876832</v>
+        <v>50.35996526876821</v>
       </c>
       <c r="H16" t="n">
-        <v>32.81224407031905</v>
+        <v>32.812244070319</v>
       </c>
       <c r="I16" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J16" t="n">
-        <v>91.91899215927211</v>
+        <v>91.91899215927218</v>
       </c>
       <c r="K16" t="n">
-        <v>237.4946635888037</v>
+        <v>237.4946635888038</v>
       </c>
       <c r="L16" t="n">
-        <v>439.7646158938797</v>
+        <v>439.76461589388</v>
       </c>
       <c r="M16" t="n">
-        <v>655.7325877392637</v>
+        <v>522.4012411813296</v>
       </c>
       <c r="N16" t="n">
-        <v>733.9624510911674</v>
+        <v>600.6311045332333</v>
       </c>
       <c r="O16" t="n">
-        <v>798.2724067525905</v>
+        <v>656.8727496945196</v>
       </c>
       <c r="P16" t="n">
-        <v>822.8761680036267</v>
+        <v>822.8761680036257</v>
       </c>
       <c r="Q16" t="n">
-        <v>897.8751138772342</v>
+        <v>897.8751138772333</v>
       </c>
       <c r="R16" t="n">
-        <v>873.4160942063043</v>
+        <v>873.4160942063035</v>
       </c>
       <c r="S16" t="n">
-        <v>795.4206311855207</v>
+        <v>795.4206311855201</v>
       </c>
       <c r="T16" t="n">
-        <v>710.4271603281986</v>
+        <v>710.4271603281979</v>
       </c>
       <c r="U16" t="n">
-        <v>565.4992235606729</v>
+        <v>565.4992235606722</v>
       </c>
       <c r="V16" t="n">
-        <v>455.0853782055867</v>
+        <v>455.0853782055862</v>
       </c>
       <c r="W16" t="n">
-        <v>309.9388510194268</v>
+        <v>309.9388510194262</v>
       </c>
       <c r="X16" t="n">
-        <v>226.2199429722102</v>
+        <v>226.2199429722097</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.6980066794808</v>
+        <v>149.6980066794803</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5598399739553</v>
+        <v>784.5598399739556</v>
       </c>
       <c r="C17" t="n">
-        <v>669.4407499711467</v>
+        <v>669.4407499711473</v>
       </c>
       <c r="D17" t="n">
-        <v>565.0184783019994</v>
+        <v>565.0184783020001</v>
       </c>
       <c r="E17" t="n">
-        <v>433.0736526413583</v>
+        <v>433.073652641359</v>
       </c>
       <c r="F17" t="n">
-        <v>275.9311747893539</v>
+        <v>275.9311747893547</v>
       </c>
       <c r="G17" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H17" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I17" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J17" t="n">
-        <v>26.98758356401274</v>
+        <v>57.86375137082629</v>
       </c>
       <c r="K17" t="n">
-        <v>194.0077595332904</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L17" t="n">
-        <v>453.4876842996272</v>
+        <v>484.3638521064407</v>
       </c>
       <c r="M17" t="n">
-        <v>758.8156425041047</v>
+        <v>789.6918103109183</v>
       </c>
       <c r="N17" t="n">
-        <v>1054.45212873707</v>
+        <v>908.9431108514668</v>
       </c>
       <c r="O17" t="n">
-        <v>1288.425641592451</v>
+        <v>1142.916623706847</v>
       </c>
       <c r="P17" t="n">
-        <v>1349.379178200637</v>
+        <v>1304.933220852846</v>
       </c>
       <c r="Q17" t="n">
         <v>1349.379178200637</v>
@@ -5549,16 +5549,16 @@
         <v>1349.379178200637</v>
       </c>
       <c r="V17" t="n">
-        <v>1272.159717794669</v>
+        <v>1272.15971779467</v>
       </c>
       <c r="W17" t="n">
         <v>1173.234489462159</v>
       </c>
       <c r="X17" t="n">
-        <v>1053.612158138682</v>
+        <v>1053.612158138683</v>
       </c>
       <c r="Y17" t="n">
-        <v>917.3162531004739</v>
+        <v>917.3162531004741</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.98758356401274</v>
+        <v>286.6382385237746</v>
       </c>
       <c r="C18" t="n">
-        <v>26.98758356401274</v>
+        <v>286.6382385237746</v>
       </c>
       <c r="D18" t="n">
-        <v>26.98758356401274</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="E18" t="n">
-        <v>26.98758356401274</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="F18" t="n">
-        <v>26.98758356401274</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="G18" t="n">
-        <v>26.98758356401274</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="H18" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I18" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J18" t="n">
-        <v>51.68383790382259</v>
+        <v>51.68383790382261</v>
       </c>
       <c r="K18" t="n">
-        <v>51.68383790382259</v>
+        <v>220.5145132468848</v>
       </c>
       <c r="L18" t="n">
-        <v>264.8685533496006</v>
+        <v>220.5145132468848</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8398999542583</v>
+        <v>554.4858598515425</v>
       </c>
       <c r="N18" t="n">
-        <v>932.8112465589159</v>
+        <v>888.4572064562003</v>
       </c>
       <c r="O18" t="n">
-        <v>1245.618931356885</v>
+        <v>1201.264891254169</v>
       </c>
       <c r="P18" t="n">
-        <v>1245.618931356885</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="Q18" t="n">
         <v>1349.379178200637</v>
       </c>
       <c r="R18" t="n">
-        <v>1268.519353589406</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="S18" t="n">
-        <v>1100.204184514512</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="T18" t="n">
-        <v>1100.204184514512</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="U18" t="n">
-        <v>1100.204184514512</v>
+        <v>1121.173631396794</v>
       </c>
       <c r="V18" t="n">
-        <v>865.0520762827691</v>
+        <v>1121.173631396794</v>
       </c>
       <c r="W18" t="n">
-        <v>610.8147195545675</v>
+        <v>866.9362746685927</v>
       </c>
       <c r="X18" t="n">
-        <v>402.9632193490347</v>
+        <v>659.0847744630598</v>
       </c>
       <c r="Y18" t="n">
-        <v>195.2029205840808</v>
+        <v>451.3244756981059</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>186.1586061009592</v>
+        <v>186.1586061009595</v>
       </c>
       <c r="C19" t="n">
-        <v>186.1586061009592</v>
+        <v>186.1586061009595</v>
       </c>
       <c r="D19" t="n">
-        <v>186.1586061009592</v>
+        <v>186.1586061009595</v>
       </c>
       <c r="E19" t="n">
-        <v>186.1586061009592</v>
+        <v>186.1586061009595</v>
       </c>
       <c r="F19" t="n">
-        <v>186.1586061009592</v>
+        <v>186.1586061009595</v>
       </c>
       <c r="G19" t="n">
-        <v>186.1586061009592</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="H19" t="n">
-        <v>186.1586061009592</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I19" t="n">
-        <v>36.06330274385223</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J19" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K19" t="n">
-        <v>31.16359793547453</v>
+        <v>31.16359793547455</v>
       </c>
       <c r="L19" t="n">
-        <v>92.03389318248091</v>
+        <v>92.03389318248094</v>
       </c>
       <c r="M19" t="n">
         <v>166.6022079697952</v>
@@ -5686,7 +5686,7 @@
         <v>244.8320713216988</v>
       </c>
       <c r="O19" t="n">
-        <v>301.0737164829851</v>
+        <v>301.0737164829852</v>
       </c>
       <c r="P19" t="n">
         <v>325.6774777340214</v>
@@ -5704,19 +5704,19 @@
         <v>257.9285631493236</v>
       </c>
       <c r="U19" t="n">
-        <v>222.5734104686003</v>
+        <v>222.5734104686005</v>
       </c>
       <c r="V19" t="n">
-        <v>221.7323492003167</v>
+        <v>221.7323492003168</v>
       </c>
       <c r="W19" t="n">
-        <v>186.1586061009592</v>
+        <v>186.1586061009595</v>
       </c>
       <c r="X19" t="n">
-        <v>186.1586061009592</v>
+        <v>186.1586061009595</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.1586061009592</v>
+        <v>186.1586061009595</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>784.5598399739546</v>
+        <v>784.5598399739554</v>
       </c>
       <c r="C20" t="n">
-        <v>669.440749971146</v>
+        <v>669.4407499711469</v>
       </c>
       <c r="D20" t="n">
-        <v>565.0184783019988</v>
+        <v>565.0184783019997</v>
       </c>
       <c r="E20" t="n">
-        <v>433.0736526413577</v>
+        <v>433.0736526413588</v>
       </c>
       <c r="F20" t="n">
-        <v>275.9311747893533</v>
+        <v>275.9311747893545</v>
       </c>
       <c r="G20" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H20" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I20" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J20" t="n">
-        <v>57.86375137082628</v>
+        <v>57.86375137082629</v>
       </c>
       <c r="K20" t="n">
         <v>224.8839273401039</v>
@@ -5765,10 +5765,10 @@
         <v>1085.328296543884</v>
       </c>
       <c r="O20" t="n">
-        <v>1187.362581054639</v>
+        <v>1319.301809399264</v>
       </c>
       <c r="P20" t="n">
-        <v>1349.379178200637</v>
+        <v>1319.301809399264</v>
       </c>
       <c r="Q20" t="n">
         <v>1349.379178200637</v>
@@ -5786,16 +5786,16 @@
         <v>1349.379178200637</v>
       </c>
       <c r="V20" t="n">
-        <v>1272.159717794669</v>
+        <v>1272.15971779467</v>
       </c>
       <c r="W20" t="n">
-        <v>1173.234489462158</v>
+        <v>1173.234489462159</v>
       </c>
       <c r="X20" t="n">
-        <v>1053.612158138682</v>
+        <v>1053.612158138683</v>
       </c>
       <c r="Y20" t="n">
-        <v>917.3162531004732</v>
+        <v>917.3162531004738</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>430.7047498973881</v>
+        <v>648.0686167407607</v>
       </c>
       <c r="C21" t="n">
-        <v>430.7047498973881</v>
+        <v>473.6155874596337</v>
       </c>
       <c r="D21" t="n">
-        <v>430.7047498973881</v>
+        <v>324.6811777983825</v>
       </c>
       <c r="E21" t="n">
-        <v>271.4672948919326</v>
+        <v>165.443722792927</v>
       </c>
       <c r="F21" t="n">
-        <v>271.4672948919326</v>
+        <v>165.443722792927</v>
       </c>
       <c r="G21" t="n">
-        <v>218.5460607268954</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="H21" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I21" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J21" t="n">
-        <v>51.68383790382259</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K21" t="n">
-        <v>51.68383790382259</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L21" t="n">
-        <v>51.68383790382259</v>
+        <v>484.2363331920536</v>
       </c>
       <c r="M21" t="n">
-        <v>364.7872229686577</v>
+        <v>818.2076797967113</v>
       </c>
       <c r="N21" t="n">
-        <v>698.7585695733153</v>
+        <v>1152.179026401369</v>
       </c>
       <c r="O21" t="n">
-        <v>1011.566254371284</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="P21" t="n">
         <v>1245.618931356885</v>
@@ -5853,28 +5853,28 @@
         <v>1349.379178200637</v>
       </c>
       <c r="R21" t="n">
-        <v>1349.379178200637</v>
+        <v>1265.264287718369</v>
       </c>
       <c r="S21" t="n">
-        <v>1349.379178200637</v>
+        <v>1096.949118643475</v>
       </c>
       <c r="T21" t="n">
-        <v>1148.299761661176</v>
+        <v>895.8697021040134</v>
       </c>
       <c r="U21" t="n">
-        <v>920.0942148573324</v>
+        <v>816.6778835514272</v>
       </c>
       <c r="V21" t="n">
-        <v>684.9421066255898</v>
+        <v>816.6778835514272</v>
       </c>
       <c r="W21" t="n">
-        <v>430.7047498973881</v>
+        <v>816.2839537608288</v>
       </c>
       <c r="X21" t="n">
-        <v>430.7047498973881</v>
+        <v>816.2839537608288</v>
       </c>
       <c r="Y21" t="n">
-        <v>430.7047498973881</v>
+        <v>816.2839537608288</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>253.9075206856569</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="C22" t="n">
-        <v>253.9075206856569</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="D22" t="n">
-        <v>253.9075206856569</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="E22" t="n">
-        <v>105.9944271032638</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="F22" t="n">
-        <v>105.9944271032638</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="G22" t="n">
-        <v>26.98758356401274</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="H22" t="n">
-        <v>26.98758356401274</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="I22" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J22" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K22" t="n">
-        <v>31.16359793547453</v>
+        <v>31.16359793547455</v>
       </c>
       <c r="L22" t="n">
-        <v>92.03389318248091</v>
+        <v>92.03389318248094</v>
       </c>
       <c r="M22" t="n">
         <v>166.6022079697952</v>
@@ -5923,37 +5923,37 @@
         <v>244.8320713216988</v>
       </c>
       <c r="O22" t="n">
-        <v>301.0737164829851</v>
+        <v>301.0737164829852</v>
       </c>
       <c r="P22" t="n">
         <v>325.6774777340214</v>
       </c>
       <c r="Q22" t="n">
-        <v>325.6774777340214</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="R22" t="n">
-        <v>325.6774777340214</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="S22" t="n">
-        <v>325.6774777340214</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="T22" t="n">
-        <v>325.6774777340214</v>
+        <v>248.8528439694839</v>
       </c>
       <c r="U22" t="n">
-        <v>290.3223250532981</v>
+        <v>213.4976912887607</v>
       </c>
       <c r="V22" t="n">
-        <v>289.4812637850144</v>
+        <v>212.6566300204771</v>
       </c>
       <c r="W22" t="n">
-        <v>253.9075206856569</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="X22" t="n">
-        <v>253.9075206856569</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="Y22" t="n">
-        <v>253.9075206856569</v>
+        <v>177.0828869211198</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.5598399739542</v>
+        <v>784.5598399739556</v>
       </c>
       <c r="C23" t="n">
-        <v>669.4407499711458</v>
+        <v>669.4407499711472</v>
       </c>
       <c r="D23" t="n">
-        <v>565.0184783019986</v>
+        <v>565.0184783019999</v>
       </c>
       <c r="E23" t="n">
-        <v>433.0736526413575</v>
+        <v>433.073652641359</v>
       </c>
       <c r="F23" t="n">
-        <v>275.9311747893531</v>
+        <v>275.9311747893547</v>
       </c>
       <c r="G23" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H23" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I23" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J23" t="n">
-        <v>26.98758356401273</v>
+        <v>57.86375137082629</v>
       </c>
       <c r="K23" t="n">
-        <v>194.0077595332904</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L23" t="n">
-        <v>453.4876842996272</v>
+        <v>307.9786664140236</v>
       </c>
       <c r="M23" t="n">
-        <v>758.8156425041047</v>
+        <v>613.3066246185012</v>
       </c>
       <c r="N23" t="n">
-        <v>1054.45212873707</v>
+        <v>908.9431108514668</v>
       </c>
       <c r="O23" t="n">
-        <v>1288.425641592451</v>
+        <v>1142.916623706847</v>
       </c>
       <c r="P23" t="n">
-        <v>1304.933220852845</v>
+        <v>1304.933220852846</v>
       </c>
       <c r="Q23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="S23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="T23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="U23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="V23" t="n">
-        <v>1272.159717794669</v>
+        <v>1272.15971779467</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.234489462158</v>
+        <v>1173.234489462159</v>
       </c>
       <c r="X23" t="n">
-        <v>1053.612158138681</v>
+        <v>1053.612158138683</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.3162531004729</v>
+        <v>917.3162531004741</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>926.9264844523668</v>
+        <v>526.7179253936022</v>
       </c>
       <c r="C24" t="n">
-        <v>752.4734551712398</v>
+        <v>526.7179253936022</v>
       </c>
       <c r="D24" t="n">
-        <v>603.5390455099886</v>
+        <v>377.7835157323509</v>
       </c>
       <c r="E24" t="n">
-        <v>444.3015905045331</v>
+        <v>218.5460607268954</v>
       </c>
       <c r="F24" t="n">
-        <v>297.7670325314181</v>
+        <v>218.5460607268954</v>
       </c>
       <c r="G24" t="n">
         <v>218.5460607268954</v>
@@ -6063,55 +6063,55 @@
         <v>107.8298154283848</v>
       </c>
       <c r="I24" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J24" t="n">
-        <v>51.68383790382259</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K24" t="n">
-        <v>51.68383790382259</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L24" t="n">
-        <v>340.1019121888013</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="M24" t="n">
-        <v>468.5474698124095</v>
+        <v>529.7896055117327</v>
       </c>
       <c r="N24" t="n">
-        <v>802.518816417067</v>
+        <v>863.7609521163904</v>
       </c>
       <c r="O24" t="n">
-        <v>1115.326501215036</v>
+        <v>1176.568636914359</v>
       </c>
       <c r="P24" t="n">
-        <v>1349.379178200636</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="Q24" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R24" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718369</v>
       </c>
       <c r="S24" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718369</v>
       </c>
       <c r="T24" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718369</v>
       </c>
       <c r="U24" t="n">
-        <v>1349.379178200636</v>
+        <v>1037.058740914526</v>
       </c>
       <c r="V24" t="n">
-        <v>1349.379178200636</v>
+        <v>801.9066326827835</v>
       </c>
       <c r="W24" t="n">
-        <v>1095.141821472435</v>
+        <v>801.5127028921852</v>
       </c>
       <c r="X24" t="n">
-        <v>1095.141821472435</v>
+        <v>694.9332624136703</v>
       </c>
       <c r="Y24" t="n">
-        <v>1095.141821472435</v>
+        <v>694.9332624136703</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.98758356401273</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="C25" t="n">
-        <v>26.98758356401273</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="D25" t="n">
-        <v>26.98758356401273</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="E25" t="n">
-        <v>26.98758356401273</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="F25" t="n">
-        <v>26.98758356401273</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="G25" t="n">
-        <v>26.98758356401273</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="H25" t="n">
-        <v>26.98758356401273</v>
+        <v>177.0828869211198</v>
       </c>
       <c r="I25" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J25" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K25" t="n">
-        <v>31.16359793547453</v>
+        <v>31.16359793547455</v>
       </c>
       <c r="L25" t="n">
-        <v>92.03389318248091</v>
+        <v>92.03389318248094</v>
       </c>
       <c r="M25" t="n">
         <v>166.6022079697952</v>
@@ -6160,7 +6160,7 @@
         <v>244.8320713216988</v>
       </c>
       <c r="O25" t="n">
-        <v>301.0737164829851</v>
+        <v>301.0737164829852</v>
       </c>
       <c r="P25" t="n">
         <v>325.6774777340214</v>
@@ -6178,19 +6178,19 @@
         <v>325.6774777340214</v>
       </c>
       <c r="U25" t="n">
-        <v>63.40238793165389</v>
+        <v>290.3223250532982</v>
       </c>
       <c r="V25" t="n">
-        <v>62.56132666337018</v>
+        <v>289.4812637850146</v>
       </c>
       <c r="W25" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856573</v>
       </c>
       <c r="X25" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856573</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.98758356401273</v>
+        <v>177.0828869211198</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1470.43026241195</v>
+        <v>1470.430262411951</v>
       </c>
       <c r="C26" t="n">
-        <v>1252.672914732178</v>
+        <v>1252.67291473218</v>
       </c>
       <c r="D26" t="n">
-        <v>1045.612385386067</v>
+        <v>1045.612385386069</v>
       </c>
       <c r="E26" t="n">
-        <v>811.0293020484628</v>
+        <v>811.0293020484646</v>
       </c>
       <c r="F26" t="n">
-        <v>551.2485665194952</v>
+        <v>551.2485665194969</v>
       </c>
       <c r="G26" t="n">
-        <v>283.4694079821371</v>
+        <v>283.4694079821388</v>
       </c>
       <c r="H26" t="n">
-        <v>97.02845994022852</v>
+        <v>97.02845994022849</v>
       </c>
       <c r="I26" t="n">
         <v>55.42406760879518</v>
       </c>
       <c r="J26" t="n">
-        <v>234.4964218079627</v>
+        <v>234.4964218079619</v>
       </c>
       <c r="K26" t="n">
-        <v>549.7127841695935</v>
+        <v>549.7127841695927</v>
       </c>
       <c r="L26" t="n">
-        <v>957.3888953282834</v>
+        <v>957.3888953282826</v>
       </c>
       <c r="M26" t="n">
-        <v>1410.913039925114</v>
+        <v>1410.913039925113</v>
       </c>
       <c r="N26" t="n">
-        <v>1854.745712550433</v>
+        <v>1854.745712550432</v>
       </c>
       <c r="O26" t="n">
         <v>2236.915411798166</v>
@@ -6251,25 +6251,25 @@
         <v>2771.203380439759</v>
       </c>
       <c r="S26" t="n">
-        <v>2722.975969437758</v>
+        <v>2722.975969437759</v>
       </c>
       <c r="T26" t="n">
-        <v>2651.079146700412</v>
+        <v>2651.079146700413</v>
       </c>
       <c r="U26" t="n">
-        <v>2548.440889023449</v>
+        <v>2548.44088902345</v>
       </c>
       <c r="V26" t="n">
-        <v>2368.583170940517</v>
+        <v>2368.58317094052</v>
       </c>
       <c r="W26" t="n">
-        <v>2167.019684931043</v>
+        <v>2167.019684931046</v>
       </c>
       <c r="X26" t="n">
-        <v>1944.759095930603</v>
+        <v>1944.759095930605</v>
       </c>
       <c r="Y26" t="n">
-        <v>1705.824933215431</v>
+        <v>1705.824933215433</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>674.105249097407</v>
+        <v>622.6730691809018</v>
       </c>
       <c r="C27" t="n">
-        <v>499.65221981628</v>
+        <v>510.130490248617</v>
       </c>
       <c r="D27" t="n">
-        <v>499.65221981628</v>
+        <v>361.1960805873657</v>
       </c>
       <c r="E27" t="n">
-        <v>340.4147648108245</v>
+        <v>201.9586255819102</v>
       </c>
       <c r="F27" t="n">
-        <v>193.8802068377094</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="G27" t="n">
         <v>55.42406760879518</v>
@@ -6309,16 +6309,16 @@
         <v>248.9509972916672</v>
       </c>
       <c r="L27" t="n">
-        <v>537.3690715766459</v>
+        <v>537.369071576646</v>
       </c>
       <c r="M27" t="n">
-        <v>925.9185821058161</v>
+        <v>925.9185821058163</v>
       </c>
       <c r="N27" t="n">
-        <v>1340.458855400998</v>
+        <v>1340.458855400999</v>
       </c>
       <c r="O27" t="n">
-        <v>1653.266540198967</v>
+        <v>1653.266540198968</v>
       </c>
       <c r="P27" t="n">
         <v>1887.319217184568</v>
@@ -6330,25 +6330,25 @@
         <v>1991.07946402832</v>
       </c>
       <c r="S27" t="n">
-        <v>1973.969464214065</v>
+        <v>1822.764294953426</v>
       </c>
       <c r="T27" t="n">
-        <v>1824.322227591109</v>
+        <v>1772.890047674604</v>
       </c>
       <c r="U27" t="n">
-        <v>1596.116680787266</v>
+        <v>1544.684500870761</v>
       </c>
       <c r="V27" t="n">
-        <v>1360.964572555523</v>
+        <v>1460.737561899658</v>
       </c>
       <c r="W27" t="n">
-        <v>1106.727215827322</v>
+        <v>1206.500205171457</v>
       </c>
       <c r="X27" t="n">
-        <v>1050.080884882429</v>
+        <v>998.6487049659238</v>
       </c>
       <c r="Y27" t="n">
-        <v>842.3205861174749</v>
+        <v>790.8884062009699</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.49789674253944</v>
+        <v>97.79132821911189</v>
       </c>
       <c r="C28" t="n">
-        <v>75.7668830752724</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="D28" t="n">
-        <v>76.83375117959531</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="E28" t="n">
-        <v>80.06031455184497</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="F28" t="n">
-        <v>84.28966340149617</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="G28" t="n">
-        <v>66.03726239740526</v>
+        <v>66.03726239740523</v>
       </c>
       <c r="H28" t="n">
         <v>55.42406760879518</v>
       </c>
       <c r="I28" t="n">
-        <v>56.51184718084774</v>
+        <v>56.51184718084777</v>
       </c>
       <c r="J28" t="n">
-        <v>56.51184718084774</v>
+        <v>56.51184718084777</v>
       </c>
       <c r="K28" t="n">
-        <v>60.68786155230953</v>
+        <v>60.68786155230958</v>
       </c>
       <c r="L28" t="n">
-        <v>269.754343191669</v>
+        <v>121.558156799316</v>
       </c>
       <c r="M28" t="n">
-        <v>492.5188443713364</v>
+        <v>344.3226579789834</v>
       </c>
       <c r="N28" t="n">
-        <v>570.7487077232399</v>
+        <v>570.7487077232402</v>
       </c>
       <c r="O28" t="n">
-        <v>775.1865392768794</v>
+        <v>775.1865392768797</v>
       </c>
       <c r="P28" t="n">
-        <v>816.6420882311793</v>
+        <v>820.9355197077515</v>
       </c>
       <c r="Q28" t="n">
-        <v>816.6420882311793</v>
+        <v>820.9355197077515</v>
       </c>
       <c r="R28" t="n">
-        <v>799.1175949700886</v>
+        <v>803.4110264466608</v>
       </c>
       <c r="S28" t="n">
-        <v>728.0566583591443</v>
+        <v>732.3500898357165</v>
       </c>
       <c r="T28" t="n">
-        <v>649.9977139116613</v>
+        <v>654.2911453882335</v>
       </c>
       <c r="U28" t="n">
-        <v>512.0043035539748</v>
+        <v>516.297735030547</v>
       </c>
       <c r="V28" t="n">
-        <v>408.5249846087277</v>
+        <v>412.8184160853</v>
       </c>
       <c r="W28" t="n">
-        <v>270.312983832407</v>
+        <v>274.6064153089793</v>
       </c>
       <c r="X28" t="n">
-        <v>193.5286021950295</v>
+        <v>197.8220336716019</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.9411923121393</v>
+        <v>128.2346237887117</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1470.430262411951</v>
+        <v>1470.43026241195</v>
       </c>
       <c r="C29" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.672914732178</v>
       </c>
       <c r="D29" t="n">
-        <v>1045.612385386069</v>
+        <v>1045.612385386068</v>
       </c>
       <c r="E29" t="n">
-        <v>811.0293020484644</v>
+        <v>811.0293020484636</v>
       </c>
       <c r="F29" t="n">
-        <v>551.2485665194968</v>
+        <v>551.248566519496</v>
       </c>
       <c r="G29" t="n">
-        <v>283.4694079821387</v>
+        <v>283.4694079821379</v>
       </c>
       <c r="H29" t="n">
-        <v>97.02845994022937</v>
+        <v>97.02845994022849</v>
       </c>
       <c r="I29" t="n">
         <v>55.42406760879518</v>
@@ -6488,25 +6488,25 @@
         <v>2771.203380439759</v>
       </c>
       <c r="S29" t="n">
-        <v>2722.975969437759</v>
+        <v>2722.975969437758</v>
       </c>
       <c r="T29" t="n">
-        <v>2651.079146700413</v>
+        <v>2651.079146700412</v>
       </c>
       <c r="U29" t="n">
         <v>2548.440889023449</v>
       </c>
       <c r="V29" t="n">
-        <v>2368.583170940519</v>
+        <v>2368.583170940518</v>
       </c>
       <c r="W29" t="n">
-        <v>2167.019684931045</v>
+        <v>2167.019684931044</v>
       </c>
       <c r="X29" t="n">
         <v>1944.759095930604</v>
       </c>
       <c r="Y29" t="n">
-        <v>1705.824933215433</v>
+        <v>1705.824933215432</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>823.0396587586582</v>
+        <v>765.425751394116</v>
       </c>
       <c r="C30" t="n">
-        <v>648.5866294775312</v>
+        <v>590.972722112989</v>
       </c>
       <c r="D30" t="n">
-        <v>499.65221981628</v>
+        <v>442.0383124517377</v>
       </c>
       <c r="E30" t="n">
-        <v>340.4147648108245</v>
+        <v>282.8008574462822</v>
       </c>
       <c r="F30" t="n">
-        <v>193.8802068377094</v>
+        <v>136.2662994731672</v>
       </c>
       <c r="G30" t="n">
-        <v>55.42406760879518</v>
+        <v>136.2662994731672</v>
       </c>
       <c r="H30" t="n">
-        <v>55.42406760879518</v>
+        <v>136.2662994731672</v>
       </c>
       <c r="I30" t="n">
         <v>55.42406760879518</v>
@@ -6546,16 +6546,16 @@
         <v>248.9509972916672</v>
       </c>
       <c r="L30" t="n">
-        <v>537.3690715766459</v>
+        <v>537.369071576646</v>
       </c>
       <c r="M30" t="n">
-        <v>925.9185821058161</v>
+        <v>925.9185821058163</v>
       </c>
       <c r="N30" t="n">
-        <v>1340.458855400998</v>
+        <v>1340.458855400999</v>
       </c>
       <c r="O30" t="n">
-        <v>1653.266540198967</v>
+        <v>1653.266540198968</v>
       </c>
       <c r="P30" t="n">
         <v>1887.319217184568</v>
@@ -6567,10 +6567,10 @@
         <v>1991.07946402832</v>
       </c>
       <c r="S30" t="n">
-        <v>1822.764294953425</v>
+        <v>1822.764294953426</v>
       </c>
       <c r="T30" t="n">
-        <v>1772.890047674604</v>
+        <v>1621.684878413964</v>
       </c>
       <c r="U30" t="n">
         <v>1544.684500870761</v>
@@ -6579,13 +6579,13 @@
         <v>1460.737561899658</v>
       </c>
       <c r="W30" t="n">
-        <v>1357.705374432096</v>
+        <v>1349.252887384671</v>
       </c>
       <c r="X30" t="n">
-        <v>1199.01529454368</v>
+        <v>1141.401387179138</v>
       </c>
       <c r="Y30" t="n">
-        <v>991.2549957787262</v>
+        <v>933.641088414184</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.9538089644402</v>
+        <v>98.79411369651343</v>
       </c>
       <c r="C31" t="n">
-        <v>83.22279529717318</v>
+        <v>81.06310002924643</v>
       </c>
       <c r="D31" t="n">
-        <v>84.28966340149611</v>
+        <v>81.06310002924643</v>
       </c>
       <c r="E31" t="n">
         <v>84.28966340149611</v>
@@ -6616,55 +6616,55 @@
         <v>55.42406760879518</v>
       </c>
       <c r="I31" t="n">
-        <v>56.51184718084777</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J31" t="n">
-        <v>128.2397851103905</v>
+        <v>127.152005538338</v>
       </c>
       <c r="K31" t="n">
-        <v>280.6119858742055</v>
+        <v>131.3280199097998</v>
       </c>
       <c r="L31" t="n">
-        <v>360.4627543012955</v>
+        <v>192.1983151568062</v>
       </c>
       <c r="M31" t="n">
-        <v>435.0310690886097</v>
+        <v>414.9628163364736</v>
       </c>
       <c r="N31" t="n">
-        <v>513.2609324405133</v>
+        <v>592.8967123804773</v>
       </c>
       <c r="O31" t="n">
-        <v>569.5025776017997</v>
+        <v>797.3345439341168</v>
       </c>
       <c r="P31" t="n">
-        <v>742.302525245189</v>
+        <v>821.938305185153</v>
       </c>
       <c r="Q31" t="n">
-        <v>824.0980004530799</v>
+        <v>821.938305185153</v>
       </c>
       <c r="R31" t="n">
-        <v>806.5735071919892</v>
+        <v>804.4138119240623</v>
       </c>
       <c r="S31" t="n">
-        <v>735.5125705810449</v>
+        <v>733.352875313118</v>
       </c>
       <c r="T31" t="n">
-        <v>657.4536261335619</v>
+        <v>655.293930865635</v>
       </c>
       <c r="U31" t="n">
-        <v>519.4602157758753</v>
+        <v>517.3005205079485</v>
       </c>
       <c r="V31" t="n">
-        <v>415.9808968306284</v>
+        <v>413.8212015627015</v>
       </c>
       <c r="W31" t="n">
-        <v>277.7688960543076</v>
+        <v>275.6092007863808</v>
       </c>
       <c r="X31" t="n">
-        <v>200.9845144169302</v>
+        <v>198.8248191490034</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.39710453404</v>
+        <v>129.2374092661132</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1470.430262411951</v>
+        <v>1470.43026241195</v>
       </c>
       <c r="C32" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.672914732178</v>
       </c>
       <c r="D32" t="n">
-        <v>1045.612385386069</v>
+        <v>1045.612385386068</v>
       </c>
       <c r="E32" t="n">
-        <v>811.0293020484642</v>
+        <v>811.0293020484635</v>
       </c>
       <c r="F32" t="n">
-        <v>551.2485665194965</v>
+        <v>551.2485665194959</v>
       </c>
       <c r="G32" t="n">
-        <v>283.4694079821379</v>
+        <v>283.4694079821378</v>
       </c>
       <c r="H32" t="n">
-        <v>97.02845994022852</v>
+        <v>97.02845994022846</v>
       </c>
       <c r="I32" t="n">
         <v>55.42406760879518</v>
       </c>
       <c r="J32" t="n">
-        <v>234.4964218079619</v>
+        <v>234.4964218079617</v>
       </c>
       <c r="K32" t="n">
         <v>549.7127841695926</v>
       </c>
       <c r="L32" t="n">
-        <v>957.3888953282834</v>
+        <v>957.3888953282825</v>
       </c>
       <c r="M32" t="n">
-        <v>1410.913039925114</v>
+        <v>1410.913039925113</v>
       </c>
       <c r="N32" t="n">
-        <v>1854.745712550433</v>
+        <v>1854.745712550432</v>
       </c>
       <c r="O32" t="n">
         <v>2236.915411798166</v>
@@ -6734,16 +6734,16 @@
         <v>2548.440889023449</v>
       </c>
       <c r="V32" t="n">
-        <v>2368.583170940519</v>
+        <v>2368.583170940518</v>
       </c>
       <c r="W32" t="n">
-        <v>2167.019684931045</v>
+        <v>2167.019684931044</v>
       </c>
       <c r="X32" t="n">
-        <v>1944.759095930605</v>
+        <v>1944.759095930604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1705.824933215433</v>
+        <v>1705.824933215432</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.6730691809016</v>
+        <v>1464.707435941182</v>
       </c>
       <c r="C33" t="n">
-        <v>448.2200398997746</v>
+        <v>1290.254406660055</v>
       </c>
       <c r="D33" t="n">
-        <v>299.2856302385234</v>
+        <v>1141.319996998804</v>
       </c>
       <c r="E33" t="n">
-        <v>140.0481752330679</v>
+        <v>982.0825419933484</v>
       </c>
       <c r="F33" t="n">
-        <v>55.42406760879518</v>
+        <v>835.5479840202333</v>
       </c>
       <c r="G33" t="n">
-        <v>55.42406760879518</v>
+        <v>835.5479840202333</v>
       </c>
       <c r="H33" t="n">
-        <v>55.42406760879518</v>
+        <v>835.5479840202333</v>
       </c>
       <c r="I33" t="n">
-        <v>55.42406760879518</v>
+        <v>835.5479840202333</v>
       </c>
       <c r="J33" t="n">
-        <v>80.12032194860504</v>
+        <v>860.2442383600433</v>
       </c>
       <c r="K33" t="n">
-        <v>248.9509972916672</v>
+        <v>1029.074913703105</v>
       </c>
       <c r="L33" t="n">
-        <v>537.3690715766459</v>
+        <v>1317.492987988084</v>
       </c>
       <c r="M33" t="n">
-        <v>925.9185821058161</v>
+        <v>1706.042498517255</v>
       </c>
       <c r="N33" t="n">
-        <v>1340.458855400998</v>
+        <v>2120.582771812437</v>
       </c>
       <c r="O33" t="n">
-        <v>1653.266540198967</v>
+        <v>2433.390456610406</v>
       </c>
       <c r="P33" t="n">
-        <v>1887.319217184568</v>
+        <v>2667.443133596007</v>
       </c>
       <c r="Q33" t="n">
-        <v>1991.07946402832</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="R33" t="n">
-        <v>1991.07946402832</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S33" t="n">
-        <v>1973.969464214065</v>
+        <v>2754.093380625504</v>
       </c>
       <c r="T33" t="n">
-        <v>1924.095216935244</v>
+        <v>2704.219133346683</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.889670131401</v>
+        <v>2537.924036891681</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.737561899658</v>
+        <v>2302.771928659939</v>
       </c>
       <c r="W33" t="n">
-        <v>1206.500205171456</v>
+        <v>2048.534571931737</v>
       </c>
       <c r="X33" t="n">
-        <v>998.6487049659236</v>
+        <v>1840.683071726204</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.8884062009697</v>
+        <v>1632.92277296125</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.56476484686235</v>
+        <v>93.49789674253927</v>
       </c>
       <c r="C34" t="n">
-        <v>76.83375117959531</v>
+        <v>75.76688307527226</v>
       </c>
       <c r="D34" t="n">
-        <v>76.83375117959531</v>
+        <v>76.8337511795952</v>
       </c>
       <c r="E34" t="n">
-        <v>80.06031455184497</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="F34" t="n">
-        <v>84.28966340149617</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="G34" t="n">
-        <v>66.03726239740526</v>
+        <v>66.03726239740523</v>
       </c>
       <c r="H34" t="n">
         <v>55.42406760879518</v>
       </c>
       <c r="I34" t="n">
-        <v>55.42406760879518</v>
+        <v>56.51184718084777</v>
       </c>
       <c r="J34" t="n">
-        <v>127.1520055383379</v>
+        <v>73.36363488411087</v>
       </c>
       <c r="K34" t="n">
-        <v>131.3280199097997</v>
+        <v>77.53964925557267</v>
       </c>
       <c r="L34" t="n">
-        <v>205.8775237913647</v>
+        <v>286.6061308949322</v>
       </c>
       <c r="M34" t="n">
-        <v>280.4458385786789</v>
+        <v>509.3706320745997</v>
       </c>
       <c r="N34" t="n">
-        <v>506.8718883229357</v>
+        <v>587.6004954265032</v>
       </c>
       <c r="O34" t="n">
-        <v>563.113533484222</v>
+        <v>792.0383269801428</v>
       </c>
       <c r="P34" t="n">
-        <v>735.9134811276114</v>
+        <v>816.6420882311789</v>
       </c>
       <c r="Q34" t="n">
-        <v>817.7089563355022</v>
+        <v>816.6420882311789</v>
       </c>
       <c r="R34" t="n">
-        <v>800.1844630744115</v>
+        <v>799.1175949700882</v>
       </c>
       <c r="S34" t="n">
-        <v>729.1235264634672</v>
+        <v>728.056658359144</v>
       </c>
       <c r="T34" t="n">
-        <v>651.0645820159842</v>
+        <v>649.997713911661</v>
       </c>
       <c r="U34" t="n">
-        <v>513.0711716582977</v>
+        <v>512.0043035539744</v>
       </c>
       <c r="V34" t="n">
-        <v>409.5918527130506</v>
+        <v>408.5249846087274</v>
       </c>
       <c r="W34" t="n">
-        <v>271.3798519367299</v>
+        <v>270.3129838324067</v>
       </c>
       <c r="X34" t="n">
-        <v>194.5954702993524</v>
+        <v>193.5286021950293</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.0080604164622</v>
+        <v>123.9411923121391</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>876.3521304873559</v>
       </c>
       <c r="C35" t="n">
-        <v>746.5342750101792</v>
+        <v>746.5342750101794</v>
       </c>
       <c r="D35" t="n">
-        <v>627.4132378666637</v>
+        <v>627.413237866664</v>
       </c>
       <c r="E35" t="n">
-        <v>480.7696467316546</v>
+        <v>480.7696467316548</v>
       </c>
       <c r="F35" t="n">
-        <v>308.9284034052821</v>
+        <v>308.9284034052823</v>
       </c>
       <c r="G35" t="n">
         <v>129.0887370705192</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="I35" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="J35" t="n">
         <v>61.46344903801855</v>
@@ -6950,7 +6950,7 @@
         <v>1088.927994211076</v>
       </c>
       <c r="O35" t="n">
-        <v>1322.901507066456</v>
+        <v>1322.901507066457</v>
       </c>
       <c r="P35" t="n">
         <v>1484.918104212455</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>434.8169520379553</v>
+        <v>638.9654173756124</v>
       </c>
       <c r="C36" t="n">
-        <v>260.3639227568283</v>
+        <v>464.5123880944855</v>
       </c>
       <c r="D36" t="n">
-        <v>111.429513095577</v>
+        <v>315.5779784332342</v>
       </c>
       <c r="E36" t="n">
-        <v>111.429513095577</v>
+        <v>315.5779784332342</v>
       </c>
       <c r="F36" t="n">
-        <v>111.429513095577</v>
+        <v>169.0434204601192</v>
       </c>
       <c r="G36" t="n">
-        <v>111.429513095577</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="H36" t="n">
-        <v>111.429513095577</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="I36" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="J36" t="n">
-        <v>30.58728123120493</v>
+        <v>55.28353557101481</v>
       </c>
       <c r="K36" t="n">
-        <v>199.4179565742671</v>
+        <v>224.114210914077</v>
       </c>
       <c r="L36" t="n">
-        <v>487.8360308592459</v>
+        <v>512.5322851990557</v>
       </c>
       <c r="M36" t="n">
-        <v>866.353636095407</v>
+        <v>891.0498904352168</v>
       </c>
       <c r="N36" t="n">
-        <v>1216.556376762278</v>
+        <v>1269.567495671378</v>
       </c>
       <c r="O36" t="n">
-        <v>1529.364061560247</v>
+        <v>1269.567495671378</v>
       </c>
       <c r="P36" t="n">
-        <v>1529.364061560247</v>
+        <v>1425.603814716495</v>
       </c>
       <c r="Q36" t="n">
         <v>1529.364061560247</v>
       </c>
       <c r="R36" t="n">
-        <v>1529.364061560247</v>
+        <v>1445.249171077979</v>
       </c>
       <c r="S36" t="n">
-        <v>1529.364061560247</v>
+        <v>1445.249171077979</v>
       </c>
       <c r="T36" t="n">
-        <v>1497.094438329062</v>
+        <v>1445.249171077979</v>
       </c>
       <c r="U36" t="n">
-        <v>1268.888891525219</v>
+        <v>1217.043624274135</v>
       </c>
       <c r="V36" t="n">
-        <v>1033.736783293476</v>
+        <v>1217.043624274135</v>
       </c>
       <c r="W36" t="n">
-        <v>1018.64408802851</v>
+        <v>1015.032254601213</v>
       </c>
       <c r="X36" t="n">
-        <v>810.7925878229771</v>
+        <v>807.1807543956804</v>
       </c>
       <c r="Y36" t="n">
-        <v>603.0322890580233</v>
+        <v>807.1807543956804</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="C37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="D37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="E37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="F37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="G37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="H37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="I37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="J37" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="K37" t="n">
-        <v>34.76329560266673</v>
+        <v>34.76329560266674</v>
       </c>
       <c r="L37" t="n">
-        <v>95.63359084967311</v>
+        <v>95.63359084967314</v>
       </c>
       <c r="M37" t="n">
         <v>170.2019056369874</v>
@@ -7111,34 +7111,34 @@
         <v>304.6734141501773</v>
       </c>
       <c r="P37" t="n">
-        <v>329.2771754012135</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="Q37" t="n">
-        <v>329.2771754012135</v>
+        <v>261.5282608165158</v>
       </c>
       <c r="R37" t="n">
-        <v>329.2771754012135</v>
+        <v>261.5282608165158</v>
       </c>
       <c r="S37" t="n">
-        <v>329.2771754012135</v>
+        <v>146.4535347026737</v>
       </c>
       <c r="T37" t="n">
-        <v>329.2771754012135</v>
+        <v>146.4535347026737</v>
       </c>
       <c r="U37" t="n">
-        <v>279.2232572461222</v>
+        <v>96.39961654758237</v>
       </c>
       <c r="V37" t="n">
-        <v>263.6834305034703</v>
+        <v>80.85978980493053</v>
       </c>
       <c r="W37" t="n">
-        <v>213.4109219297447</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="X37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>480.7696467316554</v>
       </c>
       <c r="F38" t="n">
-        <v>308.9284034052829</v>
+        <v>308.9284034052828</v>
       </c>
       <c r="G38" t="n">
         <v>129.0887370705192</v>
@@ -7169,28 +7169,28 @@
         <v>30.58728123120495</v>
       </c>
       <c r="I38" t="n">
-        <v>30.58728123120607</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="J38" t="n">
-        <v>61.4634490380196</v>
+        <v>61.4634490380185</v>
       </c>
       <c r="K38" t="n">
-        <v>228.4836250072972</v>
+        <v>228.4836250072961</v>
       </c>
       <c r="L38" t="n">
-        <v>487.963549773634</v>
+        <v>487.963549773633</v>
       </c>
       <c r="M38" t="n">
-        <v>793.2915079781117</v>
+        <v>793.2915079781105</v>
       </c>
       <c r="N38" t="n">
-        <v>1088.927994211077</v>
+        <v>1088.927994211076</v>
       </c>
       <c r="O38" t="n">
-        <v>1322.901507066457</v>
+        <v>1322.901507066456</v>
       </c>
       <c r="P38" t="n">
-        <v>1484.918104212456</v>
+        <v>1484.918104212455</v>
       </c>
       <c r="Q38" t="n">
         <v>1529.364061560248</v>
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>474.8154334386897</v>
+        <v>360.6018976230018</v>
       </c>
       <c r="C39" t="n">
-        <v>474.8154334386897</v>
+        <v>360.6018976230018</v>
       </c>
       <c r="D39" t="n">
-        <v>474.8154334386897</v>
+        <v>360.6018976230018</v>
       </c>
       <c r="E39" t="n">
-        <v>315.5779784332342</v>
+        <v>360.6018976230018</v>
       </c>
       <c r="F39" t="n">
-        <v>169.0434204601192</v>
+        <v>360.6018976230018</v>
       </c>
       <c r="G39" t="n">
-        <v>30.58728123120495</v>
+        <v>222.1457583940876</v>
       </c>
       <c r="H39" t="n">
-        <v>30.58728123120495</v>
+        <v>111.429513095577</v>
       </c>
       <c r="I39" t="n">
         <v>30.58728123120495</v>
       </c>
       <c r="J39" t="n">
-        <v>30.58728123120495</v>
+        <v>55.28353557101482</v>
       </c>
       <c r="K39" t="n">
-        <v>30.58728123120495</v>
+        <v>224.114210914077</v>
       </c>
       <c r="L39" t="n">
-        <v>319.0053555161837</v>
+        <v>500.2258476967647</v>
       </c>
       <c r="M39" t="n">
-        <v>697.5229607523449</v>
+        <v>500.2258476967647</v>
       </c>
       <c r="N39" t="n">
-        <v>1076.040565988506</v>
+        <v>878.7434529329259</v>
       </c>
       <c r="O39" t="n">
-        <v>1295.311384574647</v>
+        <v>1191.551137730895</v>
       </c>
       <c r="P39" t="n">
-        <v>1529.364061560248</v>
+        <v>1425.603814716495</v>
       </c>
       <c r="Q39" t="n">
         <v>1529.364061560248</v>
@@ -7284,19 +7284,19 @@
         <v>1075.854585463624</v>
       </c>
       <c r="U39" t="n">
-        <v>936.9042903724242</v>
+        <v>847.6490386597804</v>
       </c>
       <c r="V39" t="n">
-        <v>936.9042903724242</v>
+        <v>612.4969304280378</v>
       </c>
       <c r="W39" t="n">
-        <v>682.6669336442226</v>
+        <v>597.4042351630712</v>
       </c>
       <c r="X39" t="n">
-        <v>474.8154334386897</v>
+        <v>568.3621963879557</v>
       </c>
       <c r="Y39" t="n">
-        <v>474.8154334386897</v>
+        <v>360.6018976230018</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.4109219297448</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="C40" t="n">
-        <v>213.4109219297448</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="D40" t="n">
-        <v>213.4109219297448</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="E40" t="n">
-        <v>65.49782834735169</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="F40" t="n">
-        <v>30.58728123120495</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="G40" t="n">
-        <v>30.58728123120495</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="H40" t="n">
-        <v>30.58728123120495</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="I40" t="n">
-        <v>30.58728123120495</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="J40" t="n">
         <v>30.58728123120495</v>
       </c>
       <c r="K40" t="n">
-        <v>34.76329560266674</v>
+        <v>34.76329560266676</v>
       </c>
       <c r="L40" t="n">
-        <v>95.63359084967313</v>
+        <v>95.63359084967314</v>
       </c>
       <c r="M40" t="n">
         <v>170.2019056369874</v>
@@ -7369,13 +7369,13 @@
         <v>263.6834305034704</v>
       </c>
       <c r="W40" t="n">
-        <v>213.4109219297448</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="X40" t="n">
-        <v>213.4109219297448</v>
+        <v>108.6081448806391</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.4109219297448</v>
+        <v>108.6081448806391</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.5369642907474</v>
+        <v>976.536964290748</v>
       </c>
       <c r="C41" t="n">
-        <v>830.6764393483217</v>
+        <v>830.6764393483222</v>
       </c>
       <c r="D41" t="n">
-        <v>695.5127327395571</v>
+        <v>695.5127327395578</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8264721392991</v>
+        <v>532.8264721392998</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9425593476776</v>
+        <v>344.9425593476783</v>
       </c>
       <c r="G41" t="n">
         <v>149.060223547666</v>
@@ -7406,22 +7406,22 @@
         <v>34.51609824310267</v>
       </c>
       <c r="I41" t="n">
-        <v>64.20570928393775</v>
+        <v>64.20570928393778</v>
       </c>
       <c r="J41" t="n">
-        <v>95.08187709075129</v>
+        <v>95.08187709075132</v>
       </c>
       <c r="K41" t="n">
-        <v>262.1020530600289</v>
+        <v>299.8269678324011</v>
       </c>
       <c r="L41" t="n">
-        <v>521.5819778263658</v>
+        <v>559.3068925987379</v>
       </c>
       <c r="M41" t="n">
-        <v>826.9099360308435</v>
+        <v>864.6348508032156</v>
       </c>
       <c r="N41" t="n">
-        <v>1122.546422263809</v>
+        <v>1160.271337036181</v>
       </c>
       <c r="O41" t="n">
         <v>1394.244849891561</v>
@@ -7454,7 +7454,7 @@
         <v>1307.072152334709</v>
       </c>
       <c r="Y41" t="n">
-        <v>1140.034812356883</v>
+        <v>1140.034812356884</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>647.4847563987771</v>
+        <v>627.6786601118388</v>
       </c>
       <c r="C42" t="n">
-        <v>473.0317271176501</v>
+        <v>627.6786601118388</v>
       </c>
       <c r="D42" t="n">
-        <v>324.0973174563989</v>
+        <v>478.7442504505875</v>
       </c>
       <c r="E42" t="n">
-        <v>164.8598624509434</v>
+        <v>319.506795445132</v>
       </c>
       <c r="F42" t="n">
-        <v>34.51609824310267</v>
+        <v>172.9722374720169</v>
       </c>
       <c r="G42" t="n">
         <v>34.51609824310267</v>
@@ -7488,13 +7488,13 @@
         <v>34.51609824310267</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51609824310267</v>
+        <v>59.21235258291253</v>
       </c>
       <c r="K42" t="n">
-        <v>34.51609824310267</v>
+        <v>228.0430279259747</v>
       </c>
       <c r="L42" t="n">
-        <v>272.0945197034593</v>
+        <v>516.4611022109534</v>
       </c>
       <c r="M42" t="n">
         <v>660.6440302326296</v>
@@ -7515,25 +7515,25 @@
         <v>1725.804912155133</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.804912155133</v>
+        <v>1557.489743080239</v>
       </c>
       <c r="T42" t="n">
-        <v>1725.804912155133</v>
+        <v>1356.410326540778</v>
       </c>
       <c r="U42" t="n">
-        <v>1497.59936535129</v>
+        <v>1128.204779736934</v>
       </c>
       <c r="V42" t="n">
-        <v>1485.549249117533</v>
+        <v>893.0526715051917</v>
       </c>
       <c r="W42" t="n">
-        <v>1231.311892389332</v>
+        <v>638.8153147769901</v>
       </c>
       <c r="X42" t="n">
-        <v>1023.460392183799</v>
+        <v>638.8153147769901</v>
       </c>
       <c r="Y42" t="n">
-        <v>815.7000934188452</v>
+        <v>627.6786601118388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>158.1620499357269</v>
+        <v>158.162049935727</v>
       </c>
       <c r="C43" t="n">
-        <v>158.1620499357269</v>
+        <v>158.162049935727</v>
       </c>
       <c r="D43" t="n">
-        <v>158.1620499357269</v>
+        <v>158.162049935727</v>
       </c>
       <c r="E43" t="n">
-        <v>158.1620499357269</v>
+        <v>158.162049935727</v>
       </c>
       <c r="F43" t="n">
         <v>34.51609824310267</v>
@@ -7570,10 +7570,10 @@
         <v>34.51609824310267</v>
       </c>
       <c r="K43" t="n">
-        <v>38.69211261456446</v>
+        <v>38.69211261456447</v>
       </c>
       <c r="L43" t="n">
-        <v>99.56240786157085</v>
+        <v>99.56240786157086</v>
       </c>
       <c r="M43" t="n">
         <v>174.1307226488851</v>
@@ -7606,13 +7606,13 @@
         <v>229.364786874733</v>
       </c>
       <c r="W43" t="n">
-        <v>163.0496088357583</v>
+        <v>163.0496088357584</v>
       </c>
       <c r="X43" t="n">
-        <v>158.1620499357269</v>
+        <v>158.162049935727</v>
       </c>
       <c r="Y43" t="n">
-        <v>158.1620499357269</v>
+        <v>158.162049935727</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.5369642907477</v>
+        <v>976.5369642907473</v>
       </c>
       <c r="C44" t="n">
-        <v>830.6764393483222</v>
+        <v>830.6764393483218</v>
       </c>
       <c r="D44" t="n">
-        <v>695.5127327395578</v>
+        <v>695.5127327395574</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8264721392994</v>
+        <v>532.8264721392992</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9425593476778</v>
+        <v>344.9425593476776</v>
       </c>
       <c r="G44" t="n">
         <v>149.060223547666</v>
@@ -7643,34 +7643,34 @@
         <v>34.51609824310267</v>
       </c>
       <c r="I44" t="n">
-        <v>64.20570928393775</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J44" t="n">
-        <v>95.08187709075129</v>
+        <v>65.39226604991622</v>
       </c>
       <c r="K44" t="n">
-        <v>262.1020530600289</v>
+        <v>232.4124420191939</v>
       </c>
       <c r="L44" t="n">
-        <v>521.5819778263658</v>
+        <v>491.8923667855307</v>
       </c>
       <c r="M44" t="n">
-        <v>864.6348508032156</v>
+        <v>797.2203249900083</v>
       </c>
       <c r="N44" t="n">
-        <v>1160.271337036181</v>
+        <v>1092.856811222974</v>
       </c>
       <c r="O44" t="n">
-        <v>1394.244849891561</v>
+        <v>1326.830324078354</v>
       </c>
       <c r="P44" t="n">
-        <v>1556.26144703756</v>
+        <v>1579.459837479372</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.707404385352</v>
+        <v>1623.905794827164</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.606521713321</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="S44" t="n">
         <v>1725.804912155133</v>
@@ -7682,7 +7682,7 @@
         <v>1695.063477215516</v>
       </c>
       <c r="V44" t="n">
-        <v>1587.102581869932</v>
+        <v>1587.102581869931</v>
       </c>
       <c r="W44" t="n">
         <v>1457.435918597803</v>
@@ -7691,7 +7691,7 @@
         <v>1307.072152334709</v>
       </c>
       <c r="Y44" t="n">
-        <v>1140.034812356884</v>
+        <v>1140.034812356883</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>424.3827644007914</v>
+        <v>424.2829323459648</v>
       </c>
       <c r="C45" t="n">
-        <v>249.9297351196643</v>
+        <v>424.2829323459648</v>
       </c>
       <c r="D45" t="n">
-        <v>100.9953254584131</v>
+        <v>400.349027309504</v>
       </c>
       <c r="E45" t="n">
-        <v>100.9953254584131</v>
+        <v>400.349027309504</v>
       </c>
       <c r="F45" t="n">
-        <v>34.51609824310267</v>
+        <v>253.814469336389</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51609824310267</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51609824310267</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="I45" t="n">
         <v>34.51609824310267</v>
@@ -7728,13 +7728,13 @@
         <v>59.21235258291253</v>
       </c>
       <c r="K45" t="n">
-        <v>228.0430279259747</v>
+        <v>59.21235258291253</v>
       </c>
       <c r="L45" t="n">
-        <v>516.4611022109534</v>
+        <v>347.6304268678913</v>
       </c>
       <c r="M45" t="n">
-        <v>905.0106127401236</v>
+        <v>736.1799373970616</v>
       </c>
       <c r="N45" t="n">
         <v>1075.184303527812</v>
@@ -7752,25 +7752,25 @@
         <v>1725.804912155133</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.804912155133</v>
+        <v>1557.489743080239</v>
       </c>
       <c r="T45" t="n">
-        <v>1725.804912155133</v>
+        <v>1557.489743080239</v>
       </c>
       <c r="U45" t="n">
-        <v>1497.59936535129</v>
+        <v>1329.284196276396</v>
       </c>
       <c r="V45" t="n">
-        <v>1262.447257119548</v>
+        <v>1094.132088044653</v>
       </c>
       <c r="W45" t="n">
-        <v>1008.209900391346</v>
+        <v>839.8947313164515</v>
       </c>
       <c r="X45" t="n">
-        <v>800.3584001858133</v>
+        <v>632.0432311109187</v>
       </c>
       <c r="Y45" t="n">
-        <v>592.5981014208594</v>
+        <v>424.2829323459648</v>
       </c>
     </row>
     <row r="46">
@@ -7807,10 +7807,10 @@
         <v>34.51609824310267</v>
       </c>
       <c r="K46" t="n">
-        <v>38.69211261456446</v>
+        <v>38.69211261456447</v>
       </c>
       <c r="L46" t="n">
-        <v>99.56240786157085</v>
+        <v>99.56240786157086</v>
       </c>
       <c r="M46" t="n">
         <v>174.1307226488851</v>
@@ -7825,22 +7825,22 @@
         <v>333.2059924131113</v>
       </c>
       <c r="Q46" t="n">
-        <v>333.2059924131113</v>
+        <v>265.4570778284135</v>
       </c>
       <c r="R46" t="n">
-        <v>333.2059924131113</v>
+        <v>209.5600407204871</v>
       </c>
       <c r="S46" t="n">
-        <v>333.2059924131113</v>
+        <v>209.5600407204871</v>
       </c>
       <c r="T46" t="n">
-        <v>327.0438707029744</v>
+        <v>203.3979190103501</v>
       </c>
       <c r="U46" t="n">
-        <v>260.9472830826339</v>
+        <v>137.3013313900097</v>
       </c>
       <c r="V46" t="n">
-        <v>229.364786874733</v>
+        <v>105.7188351821087</v>
       </c>
       <c r="W46" t="n">
         <v>39.40365714313405</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>154.5828893676101</v>
+        <v>137.9085668823631</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>158.1455797411813</v>
+        <v>174.8199022264287</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>79.50895713681398</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>410.5756052403912</v>
+        <v>73.23081069023186</v>
       </c>
       <c r="N12" t="n">
-        <v>397.9596201107004</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O12" t="n">
-        <v>227.1932460008962</v>
+        <v>353.0692710752614</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>239.4943603156857</v>
       </c>
       <c r="M14" t="n">
-        <v>434.9998076883688</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>158.1455797411813</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>93.92920131251579</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>268.8546079287642</v>
+        <v>410.5756052403912</v>
       </c>
       <c r="N15" t="n">
-        <v>397.9596201107003</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>342.8147389743145</v>
       </c>
       <c r="P15" t="n">
-        <v>82.04592319993664</v>
+        <v>82.04592319993662</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9173,16 +9173,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>259.1800701772195</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>219.7148086383392</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>167.4200842479937</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>93.9292013125158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>294.8470535466908</v>
+        <v>79.50895713681396</v>
       </c>
       <c r="M18" t="n">
         <v>410.5756052403912</v>
       </c>
       <c r="N18" t="n">
-        <v>397.9596201107003</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>82.04592319993664</v>
+        <v>231.656314054955</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9413,13 +9413,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>247.5282334398914</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>158.1455797411813</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.4200842479937</v>
+        <v>197.8012648554414</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K21" t="n">
-        <v>93.9292013125158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>79.50895713681398</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>389.4968562102673</v>
+        <v>410.5756052403912</v>
       </c>
       <c r="N21" t="n">
-        <v>397.9596201107003</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>172.2787032742518</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>82.04592319993662</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>239.4943603156857</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>174.8199022264278</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K24" t="n">
-        <v>93.9292013125158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681396</v>
       </c>
       <c r="M24" t="n">
-        <v>202.973798188826</v>
+        <v>410.5756052403912</v>
       </c>
       <c r="N24" t="n">
-        <v>397.9596201107002</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>151.7936953641042</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,16 +10674,16 @@
         <v>455.5718260802936</v>
       </c>
       <c r="N36" t="n">
-        <v>414.3549676482894</v>
+        <v>442.9558409506028</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>77.89496089494263</v>
       </c>
       <c r="P36" t="n">
-        <v>82.04592319993664</v>
+        <v>239.6583666798525</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>93.9292013125158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>358.4096003516501</v>
       </c>
       <c r="M39" t="n">
-        <v>455.5718260802938</v>
+        <v>73.23081069023186</v>
       </c>
       <c r="N39" t="n">
         <v>442.955840950603</v>
       </c>
       <c r="O39" t="n">
-        <v>299.3806362344789</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>93.9292013125158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>319.4871606321237</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>218.8701319242482</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>93.92920131251579</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>232.5074425178019</v>
+        <v>403.0434782178645</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.9059052411879</v>
+        <v>239.9059052411878</v>
       </c>
       <c r="C11" t="n">
         <v>222.4449553487148</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>211.8551051983902</v>
       </c>
       <c r="E11" t="n">
-        <v>239.1024336499691</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>264.0481093194187</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>106.1334149971034</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>48.05352955385975</v>
+        <v>48.05352955385972</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>54.61031803772083</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="V11" t="n">
-        <v>184.9243220478422</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>77.68724586699632</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>226.9031642561763</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4100022337609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>222.4449553487149</v>
+        <v>222.4449553487148</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>239.1024336499691</v>
+        <v>239.102433649969</v>
       </c>
       <c r="F14" t="n">
-        <v>264.0481093194188</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>271.9665480977252</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>82.62357294909849</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.05352955385972</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>30.11848503533124</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>108.4770562459344</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>184.9243220478422</v>
@@ -23558,7 +23558,7 @@
         <v>206.4130322951203</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9031642561764</v>
+        <v>226.9031642561763</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959989.5884485582</v>
+        <v>959989.5884485584</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959989.5884485582</v>
+        <v>959989.5884485584</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302229</v>
       </c>
       <c r="C2" t="n">
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302228</v>
       </c>
       <c r="E2" t="n">
         <v>421824.1306990086</v>
       </c>
       <c r="F2" t="n">
-        <v>421824.1306990084</v>
+        <v>421824.1306990085</v>
       </c>
       <c r="G2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="H2" t="n">
-        <v>492625.0619185695</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="I2" t="n">
         <v>492625.0619185696</v>
       </c>
       <c r="J2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="K2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="L2" t="n">
         <v>492625.0619185697</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185694</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185695</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.06191857</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>316558.6634877599</v>
+        <v>316558.66348776</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>125975.7919503425</v>
+        <v>125975.7919503424</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86781.64499674756</v>
+        <v>86781.64499674758</v>
       </c>
       <c r="M3" t="n">
-        <v>76347.91860002077</v>
+        <v>76347.91860002078</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>329006.4673210777</v>
       </c>
       <c r="F4" t="n">
-        <v>329006.4673210776</v>
+        <v>329006.4673210777</v>
       </c>
       <c r="G4" t="n">
-        <v>396179.5052090347</v>
+        <v>396179.5052090348</v>
       </c>
       <c r="H4" t="n">
-        <v>396179.5052090347</v>
+        <v>396179.5052090348</v>
       </c>
       <c r="I4" t="n">
-        <v>396179.5052090347</v>
+        <v>396179.5052090348</v>
       </c>
       <c r="J4" t="n">
         <v>394231.1226104039</v>
@@ -26451,7 +26451,7 @@
         <v>394377.3697647621</v>
       </c>
       <c r="N4" t="n">
-        <v>394377.3697647621</v>
+        <v>394377.3697647622</v>
       </c>
       <c r="O4" t="n">
         <v>393892.8197573469</v>
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35274.09422500686</v>
+        <v>35274.09422500688</v>
       </c>
       <c r="F5" t="n">
-        <v>35274.09422500686</v>
+        <v>35274.09422500688</v>
       </c>
       <c r="G5" t="n">
-        <v>44393.65186654632</v>
+        <v>44393.65186654634</v>
       </c>
       <c r="H5" t="n">
-        <v>44393.65186654632</v>
+        <v>44393.65186654634</v>
       </c>
       <c r="I5" t="n">
-        <v>44393.65186654632</v>
+        <v>44393.65186654634</v>
       </c>
       <c r="J5" t="n">
-        <v>57462.97101278279</v>
+        <v>57462.9710127828</v>
       </c>
       <c r="K5" t="n">
-        <v>57462.97101278279</v>
+        <v>57462.9710127828</v>
       </c>
       <c r="L5" t="n">
-        <v>57462.97101278279</v>
+        <v>57462.9710127828</v>
       </c>
       <c r="M5" t="n">
-        <v>45906.06868409438</v>
+        <v>45906.06868409439</v>
       </c>
       <c r="N5" t="n">
         <v>45906.0686840944</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10913.58295783014</v>
+        <v>10909.16937996191</v>
       </c>
       <c r="C6" t="n">
-        <v>10913.58295783008</v>
+        <v>10909.16937996203</v>
       </c>
       <c r="D6" t="n">
-        <v>10913.58295783008</v>
+        <v>10909.16937996186</v>
       </c>
       <c r="E6" t="n">
-        <v>-259015.0943348358</v>
+        <v>-259310.0982149174</v>
       </c>
       <c r="F6" t="n">
-        <v>57543.56915292396</v>
+        <v>57248.56527284244</v>
       </c>
       <c r="G6" t="n">
-        <v>-34729.7401537588</v>
+        <v>-34729.74015375887</v>
       </c>
       <c r="H6" t="n">
-        <v>52051.90484298852</v>
+        <v>52051.90484298844</v>
       </c>
       <c r="I6" t="n">
-        <v>52051.90484298863</v>
+        <v>52051.90484298844</v>
       </c>
       <c r="J6" t="n">
-        <v>-85044.82365495959</v>
+        <v>-85044.82365495936</v>
       </c>
       <c r="K6" t="n">
-        <v>40930.96829538307</v>
+        <v>40930.96829538295</v>
       </c>
       <c r="L6" t="n">
-        <v>-45850.67670136454</v>
+        <v>-45850.6767013646</v>
       </c>
       <c r="M6" t="n">
-        <v>-24006.2951303077</v>
+        <v>-24006.29513030776</v>
       </c>
       <c r="N6" t="n">
-        <v>52341.62346971298</v>
+        <v>52341.62346971322</v>
       </c>
       <c r="O6" t="n">
-        <v>19090.00019023841</v>
+        <v>19090.00019023853</v>
       </c>
       <c r="P6" t="n">
-        <v>51175.47681556811</v>
+        <v>51175.47681556776</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>251.3049926682272</v>
       </c>
       <c r="H2" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I2" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="J2" t="n">
         <v>149.6931175680335</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="F4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="G4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="H4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="I4" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="J4" t="n">
         <v>692.8008451099397</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.21606132209905</v>
+        <v>41.21606132209902</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459344</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="M2" t="n">
-        <v>87.06009728056921</v>
+        <v>87.06009728056918</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>355.4560505597806</v>
+        <v>355.4560505597804</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26.88496483028121</v>
+        <v>26.88496483028138</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.21606132209905</v>
+        <v>41.21606132209902</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28175,7 +28175,7 @@
         <v>142.8279364222927</v>
       </c>
       <c r="E12" t="n">
-        <v>142.8279364222927</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>142.8279364222927</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T12" t="n">
         <v>142.8279364222927</v>
@@ -28226,7 +28226,7 @@
         <v>142.8279364222927</v>
       </c>
       <c r="V12" t="n">
-        <v>142.8279364222927</v>
+        <v>12.31171920545327</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>142.8279364222927</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.3455287511823</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="13">
@@ -28272,25 +28272,25 @@
         <v>142.8279364222927</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>142.8279364222927</v>
-      </c>
-      <c r="L13" t="n">
-        <v>8.149808585996226</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>142.8279364222927</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>83.9063195694375</v>
       </c>
       <c r="P13" t="n">
         <v>142.8279364222927</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.8279364222927</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R13" t="n">
         <v>142.8279364222927</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>110.8411262127366</v>
+        <v>105.0847676270681</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I15" t="n">
-        <v>80.03380954572833</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,10 +28457,10 @@
         <v>142.8279364222927</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>142.8279364222927</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>142.8279364222927</v>
@@ -28515,16 +28515,16 @@
         <v>142.8279364222927</v>
       </c>
       <c r="M16" t="n">
+        <v>8.149808585995316</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>142.8279364222927</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>8.14980858599678</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>142.8279364222927</v>
@@ -28618,7 +28618,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V17" t="n">
         <v>251.3049926682272</v>
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3.493808847279325</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -28658,10 +28658,10 @@
         <v>137.0715778366251</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.03380954572833</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,19 +28688,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.222515212327195</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T18" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28734,16 +28734,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7629945620835</v>
+        <v>10.18368225050619</v>
       </c>
       <c r="H19" t="n">
         <v>160.2001804087575</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J19" t="n">
-        <v>68.25569302489868</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="C20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="D20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="E20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="F20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="G20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I20" t="n">
         <v>190.8814659761525</v>
@@ -28855,19 +28855,19 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28892,13 +28892,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>84.67955601323823</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>147.5235909687443</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -28965,19 +28965,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>89.54621945822488</v>
+        <v>167.7629945620835</v>
       </c>
       <c r="H22" t="n">
         <v>160.2001804087575</v>
       </c>
       <c r="I22" t="n">
-        <v>148.5943503235359</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>77.24065501293978</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.07142543885081</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>167.0423658965133</v>
@@ -29010,16 +29010,16 @@
         <v>220.0434448128683</v>
       </c>
       <c r="T22" t="n">
-        <v>226.9714725710416</v>
+        <v>217.9865105830003</v>
       </c>
       <c r="U22" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V22" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W22" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="C23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="D23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="E23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="F23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="G23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I23" t="n">
         <v>190.8814659761525</v>
@@ -29092,19 +29092,19 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="Y23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29126,10 +29126,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>58.64281575014763</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>166.6320173841457</v>
@@ -29171,16 +29171,16 @@
         <v>199.0686223740667</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>100.2593391297477</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -29214,7 +29214,7 @@
         <v>160.2001804087575</v>
       </c>
       <c r="I25" t="n">
-        <v>148.5943503235359</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>77.24065501293978</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.07142543885081</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R25" t="n">
         <v>167.0423658965133</v>
@@ -29250,19 +29250,19 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U25" t="n">
-        <v>26.65425491779939</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V25" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W25" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>142.5282659252027</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="J26" t="n">
-        <v>149.6931175680344</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K26" t="n">
         <v>149.6931175680335</v>
@@ -29354,10 +29354,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>61.29134584535373</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H27" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I27" t="n">
-        <v>80.03380954572833</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,22 +29402,22 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="T27" t="n">
-        <v>50.9178581173401</v>
-      </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29436,10 +29436,10 @@
         <v>149.6931175680335</v>
       </c>
       <c r="D28" t="n">
-        <v>149.6931175680335</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>149.6931175680335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>149.6931175680335</v>
@@ -29460,22 +29460,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="O28" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="P28" t="n">
-        <v>17.02200778107435</v>
+        <v>21.35880725235917</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.07142543885081</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R28" t="n">
         <v>149.6931175680335</v>
@@ -29533,7 +29533,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="J29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="K29" t="n">
         <v>149.6931175680335</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H30" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I30" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29642,19 +29642,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>149.6931175680335</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="W30" t="n">
-        <v>149.6931175680335</v>
+        <v>141.3251553910819</v>
       </c>
       <c r="X30" t="n">
-        <v>48.66980611394541</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,10 +29673,10 @@
         <v>149.6931175680335</v>
       </c>
       <c r="D31" t="n">
+        <v>148.6154730182124</v>
+      </c>
+      <c r="E31" t="n">
         <v>149.6931175680335</v>
-      </c>
-      <c r="E31" t="n">
-        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -29688,31 +29688,31 @@
         <v>149.6931175680335</v>
       </c>
       <c r="I31" t="n">
-        <v>149.6931175680335</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J31" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="L31" t="n">
-        <v>19.17219513139757</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>100.7111441334345</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="P31" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.6931175680335</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R31" t="n">
         <v>149.6931175680335</v>
@@ -29776,7 +29776,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="L32" t="n">
-        <v>149.6931175680343</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="M32" t="n">
         <v>149.6931175680335</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>61.29134584535393</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0715778366251</v>
@@ -29846,7 +29846,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I33" t="n">
-        <v>80.03380954572833</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29882,7 +29882,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>61.29134584535336</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29910,7 +29910,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="E34" t="n">
         <v>149.6931175680335</v>
@@ -29925,31 +29925,31 @@
         <v>149.6931175680335</v>
       </c>
       <c r="I34" t="n">
-        <v>148.5943503235359</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="J34" t="n">
+        <v>94.26266279401361</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>13.81738245915008</v>
-      </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.6931175680335</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R34" t="n">
         <v>149.6931175680335</v>
@@ -30074,16 +30074,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T36" t="n">
-        <v>167.1216953751942</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>236.7532148486027</v>
+        <v>51.7037271847266</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30165,7 +30165,7 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.07142543885081</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>167.0423658965133</v>
       </c>
       <c r="S37" t="n">
-        <v>220.0434448128683</v>
+        <v>106.1194659601647</v>
       </c>
       <c r="T37" t="n">
         <v>226.9714725710416</v>
@@ -30207,7 +30207,7 @@
         <v>236.7532148486027</v>
       </c>
       <c r="X37" t="n">
-        <v>121.9549061104225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30241,7 +30241,7 @@
         <v>236.7532148486027</v>
       </c>
       <c r="I38" t="n">
-        <v>190.8814659761536</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30308,19 +30308,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30356,19 +30356,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>88.36269919551728</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>177.0213668161131</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30387,10 +30387,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>110.859606377946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.7629945620835</v>
@@ -30402,7 +30402,7 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J40" t="n">
-        <v>77.24065501293978</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.07142543885081</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R40" t="n">
         <v>167.0423658965133</v>
@@ -30441,7 +30441,7 @@
         <v>236.7532148486027</v>
       </c>
       <c r="W40" t="n">
-        <v>236.7532148486027</v>
+        <v>132.998465569988</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>38.10597451754762</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30496,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>38.10597451754762</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>16.02888582762162</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I42" t="n">
-        <v>80.03380954572833</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,25 +30587,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.8709720780061</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>194.6574076588045</v>
       </c>
     </row>
     <row r="43">
@@ -30627,7 +30627,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>23.01155584723325</v>
+        <v>23.01155584723317</v>
       </c>
       <c r="G43" t="n">
         <v>167.7629945620835</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.07142543885081</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R43" t="n">
         <v>167.0423658965133</v>
@@ -30715,7 +30715,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="I44" t="n">
-        <v>220.8709720780061</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>38.10597451754768</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>91.5281982373937</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="S44" t="n">
-        <v>220.8709720780061</v>
+        <v>197.4382544600136</v>
       </c>
       <c r="T44" t="n">
         <v>220.8709720780061</v>
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>123.7504995785426</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>79.25477745022658</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I45" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>199.0686223740667</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.07142543885081</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>167.0423658965133</v>
+        <v>111.7042991596661</v>
       </c>
       <c r="S46" t="n">
         <v>220.0434448128683</v>
@@ -30915,7 +30915,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="W46" t="n">
-        <v>98.46147990230807</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="X46" t="n">
         <v>220.8709720780061</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H11" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I11" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J11" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K11" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L11" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M11" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N11" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O11" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P11" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R11" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S11" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T11" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I12" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J12" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K12" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L12" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M12" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N12" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O12" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P12" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R12" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S12" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T12" t="n">
         <v>1.09610632075492</v>
@@ -31911,43 +31911,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H13" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I13" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J13" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K13" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L13" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M13" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N13" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O13" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P13" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R13" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S13" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U13" t="n">
         <v>0.01243553434774309</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H14" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I14" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J14" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K14" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L14" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M14" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N14" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O14" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P14" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R14" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S14" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T14" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I15" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J15" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K15" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L15" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M15" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N15" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O15" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P15" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R15" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S15" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T15" t="n">
         <v>1.09610632075492</v>
@@ -32148,43 +32148,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H16" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I16" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J16" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K16" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L16" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M16" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N16" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O16" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P16" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R16" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S16" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U16" t="n">
         <v>0.01243553434774309</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H17" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I17" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J17" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K17" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L17" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M17" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N17" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O17" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P17" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R17" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S17" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T17" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I18" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J18" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K18" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L18" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M18" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N18" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O18" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P18" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R18" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S18" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T18" t="n">
         <v>1.09610632075492</v>
@@ -32385,43 +32385,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H19" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I19" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J19" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K19" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L19" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M19" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N19" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O19" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P19" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R19" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S19" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U19" t="n">
         <v>0.01243553434774309</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H20" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I20" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J20" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K20" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L20" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M20" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N20" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O20" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P20" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R20" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S20" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T20" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I21" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J21" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K21" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L21" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M21" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N21" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O21" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P21" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R21" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S21" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T21" t="n">
         <v>1.09610632075492</v>
@@ -32622,43 +32622,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H22" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I22" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J22" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K22" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L22" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M22" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N22" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O22" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P22" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R22" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S22" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U22" t="n">
         <v>0.01243553434774309</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H23" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I23" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J23" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K23" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L23" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M23" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N23" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O23" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P23" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R23" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S23" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T23" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,37 +32783,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I24" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J24" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K24" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L24" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M24" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N24" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O24" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P24" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R24" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S24" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T24" t="n">
         <v>1.09610632075492</v>
@@ -32859,43 +32859,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H25" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I25" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J25" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K25" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L25" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M25" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N25" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O25" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P25" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R25" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S25" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U25" t="n">
         <v>0.01243553434774309</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H26" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I26" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J26" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K26" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L26" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M26" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N26" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O26" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P26" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R26" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S26" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T26" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I27" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J27" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K27" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L27" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M27" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N27" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O27" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P27" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R27" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S27" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T27" t="n">
         <v>1.09610632075492</v>
@@ -33096,43 +33096,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H28" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I28" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J28" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K28" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L28" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M28" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N28" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O28" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P28" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R28" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S28" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U28" t="n">
         <v>0.01243553434774309</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H29" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I29" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J29" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K29" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L29" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M29" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N29" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O29" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P29" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R29" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S29" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T29" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I30" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J30" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K30" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L30" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M30" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N30" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O30" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P30" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R30" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S30" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T30" t="n">
         <v>1.09610632075492</v>
@@ -33333,43 +33333,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H31" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I31" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J31" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K31" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L31" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M31" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N31" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O31" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P31" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R31" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S31" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U31" t="n">
         <v>0.01243553434774309</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H32" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I32" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J32" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K32" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L32" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M32" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N32" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O32" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P32" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R32" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S32" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T32" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,37 +33494,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I33" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J33" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K33" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L33" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M33" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N33" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O33" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P33" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R33" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S33" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T33" t="n">
         <v>1.09610632075492</v>
@@ -33570,43 +33570,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H34" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I34" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J34" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K34" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L34" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M34" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N34" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O34" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P34" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R34" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S34" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U34" t="n">
         <v>0.01243553434774309</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H35" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I35" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J35" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K35" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L35" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M35" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N35" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O35" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P35" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R35" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S35" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T35" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,37 +33731,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I36" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J36" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K36" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L36" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M36" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N36" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O36" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P36" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R36" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S36" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T36" t="n">
         <v>1.09610632075492</v>
@@ -33807,43 +33807,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H37" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I37" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J37" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K37" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L37" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M37" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N37" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O37" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P37" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R37" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S37" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U37" t="n">
         <v>0.01243553434774309</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H38" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I38" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J38" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K38" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L38" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M38" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N38" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O38" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P38" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R38" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S38" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T38" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33968,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I39" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J39" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K39" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L39" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M39" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N39" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O39" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P39" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R39" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S39" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T39" t="n">
         <v>1.09610632075492</v>
@@ -34044,43 +34044,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H40" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I40" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J40" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K40" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L40" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M40" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N40" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O40" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P40" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R40" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S40" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U40" t="n">
         <v>0.01243553434774309</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H41" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I41" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J41" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K41" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L41" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M41" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N41" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O41" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P41" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R41" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S41" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T41" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34205,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I42" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J42" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K42" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L42" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M42" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N42" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O42" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P42" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R42" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S42" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T42" t="n">
         <v>1.09610632075492</v>
@@ -34281,43 +34281,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H43" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I43" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J43" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K43" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L43" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M43" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N43" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O43" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P43" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R43" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S43" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U43" t="n">
         <v>0.01243553434774309</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5082529951171372</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H44" t="n">
-        <v>5.205145986243382</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I44" t="n">
         <v>19.59442359425345</v>
       </c>
       <c r="J44" t="n">
-        <v>43.13733764432316</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K44" t="n">
-        <v>64.65168692763159</v>
+        <v>64.6516869276316</v>
       </c>
       <c r="L44" t="n">
-        <v>80.20613452694769</v>
+        <v>80.20613452694771</v>
       </c>
       <c r="M44" t="n">
-        <v>89.24477872886207</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N44" t="n">
-        <v>90.68885255123865</v>
+        <v>90.68885255123867</v>
       </c>
       <c r="O44" t="n">
-        <v>85.63491183104261</v>
+        <v>85.63491183104263</v>
       </c>
       <c r="P44" t="n">
-        <v>73.08741601408828</v>
+        <v>73.08741601408829</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.88560562645578</v>
+        <v>54.8856056264558</v>
       </c>
       <c r="R44" t="n">
-        <v>31.92654720452689</v>
+        <v>31.9265472045269</v>
       </c>
       <c r="S44" t="n">
-        <v>11.58181512623177</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T44" t="n">
-        <v>2.224877486125269</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04066023960937096</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,37 +34442,37 @@
         <v>2.626361390970985</v>
       </c>
       <c r="I45" t="n">
-        <v>9.362823305686751</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J45" t="n">
-        <v>25.69230278061125</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K45" t="n">
-        <v>43.9122376618432</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L45" t="n">
-        <v>59.04542264306021</v>
+        <v>59.04542264306022</v>
       </c>
       <c r="M45" t="n">
-        <v>68.90322323178643</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N45" t="n">
-        <v>70.72688652279219</v>
+        <v>70.7268865227922</v>
       </c>
       <c r="O45" t="n">
-        <v>64.7012835495018</v>
+        <v>64.70128354950181</v>
       </c>
       <c r="P45" t="n">
         <v>51.92848421439361</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.71281649537671</v>
+        <v>34.71281649537672</v>
       </c>
       <c r="R45" t="n">
         <v>16.88409257519767</v>
       </c>
       <c r="S45" t="n">
-        <v>5.051153719692148</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T45" t="n">
         <v>1.09610632075492</v>
@@ -34518,43 +34518,43 @@
         <v>0.2279847963752898</v>
       </c>
       <c r="H46" t="n">
-        <v>2.026992098682123</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I46" t="n">
-        <v>6.856124603722352</v>
+        <v>6.856124603722353</v>
       </c>
       <c r="J46" t="n">
-        <v>16.11852510373298</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K46" t="n">
-        <v>26.48768816069275</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L46" t="n">
-        <v>33.89512145383172</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M46" t="n">
         <v>35.73765312635565</v>
       </c>
       <c r="N46" t="n">
-        <v>34.88789161259323</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O46" t="n">
-        <v>32.22461467311824</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P46" t="n">
         <v>27.57372482706231</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.09061781284358</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R46" t="n">
         <v>10.25102548065621</v>
       </c>
       <c r="S46" t="n">
-        <v>3.973153224103912</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9741168572398742</v>
+        <v>0.9741168572398744</v>
       </c>
       <c r="U46" t="n">
         <v>0.01243553434774309</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.67432248524696</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>168.7072484538158</v>
@@ -35425,10 +35425,10 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>16.67432248524748</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.89490641191098</v>
+        <v>44.89490641191099</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K12" t="n">
         <v>170.5360357000628</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M12" t="n">
-        <v>337.3447945501592</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O12" t="n">
-        <v>149.2982851059536</v>
+        <v>275.1743101803188</v>
       </c>
       <c r="P12" t="n">
         <v>236.4168454400005</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.58728140935293</v>
+        <v>65.58728140935295</v>
       </c>
       <c r="K13" t="n">
-        <v>147.0461327571026</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L13" t="n">
-        <v>69.63495530014409</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M13" t="n">
-        <v>75.32153008819623</v>
+        <v>218.149466510489</v>
       </c>
       <c r="N13" t="n">
-        <v>221.8480004141145</v>
+        <v>221.8480004141146</v>
       </c>
       <c r="O13" t="n">
-        <v>56.80974258715791</v>
+        <v>140.7160621565954</v>
       </c>
       <c r="P13" t="n">
         <v>167.6802205142485</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.7565109834419</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>31.18804828971064</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K14" t="n">
         <v>168.7072484538158</v>
       </c>
       <c r="L14" t="n">
-        <v>262.1009341074109</v>
+        <v>83.93407987264617</v>
       </c>
       <c r="M14" t="n">
-        <v>293.8983531899581</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N14" t="n">
         <v>298.6227133666319</v>
@@ -35662,10 +35662,10 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.89490641191098</v>
+        <v>44.89490641191099</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.94571145435339</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>170.5360357000628</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>291.3313881666452</v>
       </c>
       <c r="M15" t="n">
-        <v>195.6237972385323</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N15" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O15" t="n">
-        <v>315.9673583817869</v>
+        <v>264.9197780793718</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.5872814093529</v>
+        <v>65.58728140935295</v>
       </c>
       <c r="K16" t="n">
         <v>147.0461327571026</v>
       </c>
       <c r="L16" t="n">
-        <v>204.3130831364405</v>
+        <v>204.3130831364406</v>
       </c>
       <c r="M16" t="n">
-        <v>218.1494665104889</v>
+        <v>83.47133867419156</v>
       </c>
       <c r="N16" t="n">
-        <v>79.02006399182181</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O16" t="n">
-        <v>64.95955117315469</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P16" t="n">
-        <v>24.8522840919558</v>
+        <v>167.6802205142485</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.75651098344187</v>
+        <v>75.75651098344194</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K17" t="n">
         <v>168.7072484538158</v>
@@ -35893,16 +35893,16 @@
         <v>308.4120789944218</v>
       </c>
       <c r="N17" t="n">
-        <v>298.6227133666319</v>
+        <v>120.4558591318672</v>
       </c>
       <c r="O17" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P17" t="n">
-        <v>61.56922889715795</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>44.89490641191099</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.94571145435339</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L18" t="n">
-        <v>215.3380964098768</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N18" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O18" t="n">
         <v>315.9673583817869</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>149.6103908550184</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.218196334809896</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L19" t="n">
-        <v>61.48514671414786</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M19" t="n">
-        <v>75.32153008819623</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N19" t="n">
-        <v>79.02006399182181</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O19" t="n">
-        <v>56.80974258715791</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P19" t="n">
         <v>24.8522840919558</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>31.18804828971064</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K20" t="n">
         <v>168.7072484538158</v>
@@ -36133,13 +36133,13 @@
         <v>298.6227133666319</v>
       </c>
       <c r="O20" t="n">
-        <v>103.0649338492473</v>
+        <v>236.3368816721012</v>
       </c>
       <c r="P20" t="n">
-        <v>163.6531284303014</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>30.38118060744775</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.94571145435339</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M21" t="n">
-        <v>316.2660455200354</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N21" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O21" t="n">
-        <v>315.9673583817869</v>
+        <v>94.38374237930921</v>
       </c>
       <c r="P21" t="n">
-        <v>236.4168454400005</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>104.8083301452043</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.218196334809896</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L22" t="n">
-        <v>61.48514671414786</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M22" t="n">
-        <v>75.32153008819623</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N22" t="n">
-        <v>79.02006399182181</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O22" t="n">
-        <v>56.80974258715791</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P22" t="n">
         <v>24.8522840919558</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K23" t="n">
         <v>168.7072484538158</v>
       </c>
       <c r="L23" t="n">
-        <v>262.1009341074109</v>
+        <v>83.93407987264617</v>
       </c>
       <c r="M23" t="n">
         <v>308.4120789944218</v>
@@ -36373,10 +36373,10 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P23" t="n">
-        <v>16.67432248524656</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.89490641191098</v>
+        <v>44.89490641191099</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.94571145435339</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L24" t="n">
-        <v>291.3313881666452</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>129.7429874985941</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N24" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O24" t="n">
         <v>315.9673583817869</v>
       </c>
       <c r="P24" t="n">
-        <v>236.4168454400005</v>
+        <v>69.74777216416759</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.218196334809896</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L25" t="n">
-        <v>61.48514671414786</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M25" t="n">
-        <v>75.32153008819623</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N25" t="n">
-        <v>79.02006399182181</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O25" t="n">
-        <v>56.80974258715791</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P25" t="n">
         <v>24.8522840919558</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.881165857745</v>
+        <v>180.8811658577442</v>
       </c>
       <c r="K26" t="n">
         <v>318.4003660218493</v>
@@ -36601,22 +36601,22 @@
         <v>411.7940516754444</v>
       </c>
       <c r="M26" t="n">
-        <v>458.1051965624553</v>
+        <v>458.1051965624554</v>
       </c>
       <c r="N26" t="n">
         <v>448.3158309346654</v>
       </c>
       <c r="O26" t="n">
-        <v>386.0299992401347</v>
+        <v>386.0299992401348</v>
       </c>
       <c r="P26" t="n">
-        <v>313.3462459983348</v>
+        <v>313.3462459983349</v>
       </c>
       <c r="Q26" t="n">
         <v>194.5880239799445</v>
       </c>
       <c r="R26" t="n">
-        <v>31.75054683141068</v>
+        <v>31.75054683141073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.94571145435339</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K27" t="n">
         <v>170.5360357000628</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.077644549821116</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.259154921464301</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.272069545102227</v>
+        <v>4.272069545102255</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,28 +36747,28 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.09876724449754</v>
+        <v>1.098767244497569</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.218196334809896</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L28" t="n">
-        <v>211.1782642821813</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M28" t="n">
         <v>225.0146476562297</v>
       </c>
       <c r="N28" t="n">
-        <v>79.02006399182181</v>
+        <v>228.7131815598553</v>
       </c>
       <c r="O28" t="n">
         <v>206.5028601551914</v>
       </c>
       <c r="P28" t="n">
-        <v>41.87429187303015</v>
+        <v>46.21109134431497</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.8811658577442</v>
+        <v>180.881165857744</v>
       </c>
       <c r="K29" t="n">
         <v>318.4003660218493</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.94571145435339</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K30" t="n">
         <v>170.5360357000628</v>
@@ -36969,10 +36969,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.077644549821144</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.259154921464329</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.098767244497568</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>72.45246255509372</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9113139028434</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L31" t="n">
-        <v>80.65734184554543</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M31" t="n">
-        <v>75.32153008819623</v>
+        <v>225.0146476562297</v>
       </c>
       <c r="N31" t="n">
-        <v>79.02006399182181</v>
+        <v>179.7312081252563</v>
       </c>
       <c r="O31" t="n">
-        <v>56.80974258715791</v>
+        <v>206.5028601551914</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5454016599893</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.62169212918269</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.8811658577441</v>
+        <v>180.8811658577442</v>
       </c>
       <c r="K32" t="n">
         <v>318.4003660218493</v>
       </c>
       <c r="L32" t="n">
-        <v>411.7940516754452</v>
+        <v>411.7940516754444</v>
       </c>
       <c r="M32" t="n">
-        <v>458.1051965624553</v>
+        <v>458.1051965624554</v>
       </c>
       <c r="N32" t="n">
         <v>448.3158309346654</v>
       </c>
       <c r="O32" t="n">
-        <v>386.0299992401347</v>
+        <v>386.0299992401348</v>
       </c>
       <c r="P32" t="n">
-        <v>313.3462459983348</v>
+        <v>313.3462459983349</v>
       </c>
       <c r="Q32" t="n">
         <v>194.5880239799445</v>
       </c>
       <c r="R32" t="n">
-        <v>31.75054683141068</v>
+        <v>31.75054683141073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.94571145435339</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K33" t="n">
         <v>170.5360357000628</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.077644549821144</v>
       </c>
       <c r="E34" t="n">
-        <v>3.259154921464301</v>
+        <v>3.259154921464329</v>
       </c>
       <c r="F34" t="n">
-        <v>4.272069545102227</v>
+        <v>4.272069545102255</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.098767244497569</v>
       </c>
       <c r="J34" t="n">
-        <v>72.45246255509369</v>
+        <v>17.02200778107383</v>
       </c>
       <c r="K34" t="n">
-        <v>4.218196334809896</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L34" t="n">
-        <v>75.30252917329794</v>
+        <v>211.1782642821814</v>
       </c>
       <c r="M34" t="n">
-        <v>75.32153008819623</v>
+        <v>225.0146476562297</v>
       </c>
       <c r="N34" t="n">
-        <v>228.7131815598553</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O34" t="n">
-        <v>56.80974258715791</v>
+        <v>206.5028601551914</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5454016599893</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.62169212918266</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>31.18804828971064</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K35" t="n">
         <v>168.7072484538158</v>
@@ -37324,7 +37324,7 @@
         <v>163.6531284303014</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.89490641191098</v>
+        <v>44.89490641191099</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K36" t="n">
         <v>170.5360357000628</v>
@@ -37394,16 +37394,16 @@
         <v>382.3410153900617</v>
       </c>
       <c r="N36" t="n">
-        <v>353.7401420877483</v>
+        <v>382.3410153900617</v>
       </c>
       <c r="O36" t="n">
-        <v>315.9673583817869</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>157.6124434799158</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.218196334809896</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L37" t="n">
-        <v>61.48514671414786</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M37" t="n">
-        <v>75.32153008819623</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N37" t="n">
-        <v>79.02006399182181</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O37" t="n">
-        <v>56.80974258715791</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P37" t="n">
         <v>24.8522840919558</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>31.18804828971064</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K38" t="n">
         <v>168.7072484538158</v>
@@ -37561,7 +37561,7 @@
         <v>163.6531284303014</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.89490641191098</v>
+        <v>44.89490641191207</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L39" t="n">
-        <v>291.3313881666452</v>
+        <v>278.9006432148361</v>
       </c>
       <c r="M39" t="n">
-        <v>382.3410153900619</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>382.3410153900619</v>
       </c>
       <c r="O39" t="n">
-        <v>221.4856753395362</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P39" t="n">
         <v>236.4168454400005</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.218196334809896</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L40" t="n">
-        <v>61.48514671414786</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M40" t="n">
-        <v>75.32153008819623</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N40" t="n">
-        <v>79.02006399182181</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O40" t="n">
-        <v>56.80974258715791</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P40" t="n">
         <v>24.8522840919558</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.98950610185361</v>
+        <v>29.98950610185365</v>
       </c>
       <c r="J41" t="n">
-        <v>31.18804828971064</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K41" t="n">
-        <v>168.7072484538158</v>
+        <v>206.8132229713634</v>
       </c>
       <c r="L41" t="n">
         <v>262.1009341074109</v>
@@ -37792,19 +37792,19 @@
         <v>298.6227133666319</v>
       </c>
       <c r="O41" t="n">
-        <v>274.4428561896489</v>
+        <v>236.3368816721012</v>
       </c>
       <c r="P41" t="n">
         <v>163.6531284303014</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.89490641191098</v>
+        <v>44.89490641191099</v>
       </c>
       <c r="R41" t="n">
         <v>102.9284013413833</v>
       </c>
       <c r="S41" t="n">
-        <v>23.43271761799251</v>
+        <v>23.43271761799254</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L42" t="n">
-        <v>239.9782034953097</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M42" t="n">
-        <v>392.474253059768</v>
+        <v>145.6393212340163</v>
       </c>
       <c r="N42" t="n">
         <v>418.7275487830124</v>
@@ -37938,19 +37938,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.218196334809896</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L43" t="n">
-        <v>61.48514671414786</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M43" t="n">
-        <v>75.32153008819623</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N43" t="n">
-        <v>79.02006399182181</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O43" t="n">
-        <v>56.80974258715791</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P43" t="n">
         <v>24.8522840919558</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.98950610185361</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>31.18804828971064</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K44" t="n">
         <v>168.7072484538158</v>
@@ -38023,7 +38023,7 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M44" t="n">
-        <v>346.5180535119695</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N44" t="n">
         <v>298.6227133666319</v>
@@ -38032,16 +38032,16 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P44" t="n">
-        <v>163.6531284303014</v>
+        <v>255.1813266676951</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.89490641191098</v>
+        <v>44.89490641191099</v>
       </c>
       <c r="R44" t="n">
         <v>102.9284013413833</v>
       </c>
       <c r="S44" t="n">
-        <v>23.43271761799251</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.94571145435339</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K45" t="n">
-        <v>170.5360357000628</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>291.3313881666452</v>
@@ -38105,7 +38105,7 @@
         <v>392.474253059768</v>
       </c>
       <c r="N45" t="n">
-        <v>171.8926169572608</v>
+        <v>342.4286526573234</v>
       </c>
       <c r="O45" t="n">
         <v>315.9673583817869</v>
@@ -38175,19 +38175,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.218196334809896</v>
+        <v>4.218196334809903</v>
       </c>
       <c r="L46" t="n">
-        <v>61.48514671414786</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M46" t="n">
-        <v>75.32153008819623</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N46" t="n">
-        <v>79.02006399182181</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O46" t="n">
-        <v>56.80974258715791</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P46" t="n">
         <v>24.8522840919558</v>
